--- a/assets/2 Months.xlsx
+++ b/assets/2 Months.xlsx
@@ -553,3836 +553,3836 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44370</v>
+        <v>44390</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9977574185692877</v>
+        <v>0.9999018010159655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991093661661624</v>
+        <v>1.001349603645099</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0012952072126</v>
+        <v>0.9962269098402197</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9989167166568411</v>
+        <v>0.9964831873414344</v>
       </c>
       <c r="F2" t="n">
-        <v>1.003275341227456</v>
+        <v>0.9811729410512249</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9884921571245651</v>
+        <v>0.9999448961939535</v>
       </c>
       <c r="H2" t="n">
-        <v>1.007083737359588</v>
+        <v>1.001356888935061</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9990352238567706</v>
+        <v>1.00487123393609</v>
       </c>
       <c r="J2" t="n">
-        <v>1.007314929613929</v>
+        <v>1.000600783423932</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9923629579315566</v>
+        <v>1.001362031118533</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9963414056734987</v>
+        <v>1.015459087717629</v>
       </c>
       <c r="M2" t="n">
-        <v>1.003354294441362</v>
+        <v>0.9917627365204541</v>
       </c>
       <c r="N2" t="n">
-        <v>0.999338342193374</v>
+        <v>1.001301782371024</v>
       </c>
       <c r="O2" t="n">
-        <v>1.008546165495621</v>
+        <v>0.9860899476256889</v>
       </c>
       <c r="P2" t="n">
-        <v>1.023006149663534</v>
+        <v>0.9853333155314128</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.014802566566958</v>
+        <v>0.9866544402076474</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9949672683821796</v>
+        <v>1.013691707259889</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9930376056069273</v>
+        <v>0.8744525547445255</v>
       </c>
       <c r="T2" t="n">
-        <v>0.999069348748616</v>
+        <v>1.035433070866142</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9839571924338779</v>
+        <v>1.010239669867568</v>
       </c>
       <c r="V2" t="n">
-        <v>1.005079600256836</v>
+        <v>1.017695504747968</v>
       </c>
       <c r="W2" t="n">
-        <v>1.002411220503345</v>
+        <v>0.9903476130871736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44371</v>
+        <v>44391</v>
       </c>
       <c r="B3" t="n">
-        <v>1.002820874471086</v>
+        <v>0.995200310508888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9925263230868532</v>
+        <v>0.993627663112793</v>
       </c>
       <c r="D3" t="n">
-        <v>1.008169383833808</v>
+        <v>0.994007425545366</v>
       </c>
       <c r="E3" t="n">
-        <v>1.004721671151697</v>
+        <v>0.9976440250600185</v>
       </c>
       <c r="F3" t="n">
-        <v>1.016407224380652</v>
+        <v>0.9651769383400017</v>
       </c>
       <c r="G3" t="n">
-        <v>0.996987809214843</v>
+        <v>0.9999031508863425</v>
       </c>
       <c r="H3" t="n">
-        <v>1.016478991863587</v>
+        <v>1.005578188263417</v>
       </c>
       <c r="I3" t="n">
-        <v>1.001393474671907</v>
+        <v>1.004762962269843</v>
       </c>
       <c r="J3" t="n">
-        <v>1.013361662421532</v>
+        <v>0.995113647708775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.001374721468685</v>
+        <v>0.9996973584894768</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9993224519012183</v>
+        <v>0.9869605964691257</v>
       </c>
       <c r="M3" t="n">
-        <v>1.007966479287994</v>
+        <v>1.002059276591703</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9987368017210996</v>
+        <v>1.012070966190135</v>
       </c>
       <c r="O3" t="n">
-        <v>1.016496111571274</v>
+        <v>1.005621226871489</v>
       </c>
       <c r="P3" t="n">
-        <v>1.049079781073236</v>
+        <v>0.9760000228881837</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.021146562080387</v>
+        <v>1.013115501767874</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9934574200994221</v>
+        <v>1.03904667771678</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9458730912891283</v>
+        <v>0.7611679188526459</v>
       </c>
       <c r="T3" t="n">
-        <v>1.004653327261059</v>
+        <v>1.034252016563115</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9797237115473553</v>
+        <v>1.007447048772017</v>
       </c>
       <c r="V3" t="n">
-        <v>1.010025398001284</v>
+        <v>0.9946780001810915</v>
       </c>
       <c r="W3" t="n">
-        <v>1.004651011400858</v>
+        <v>0.9711362235617413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44372</v>
+        <v>44392</v>
       </c>
       <c r="B4" t="n">
-        <v>1.006502129429654</v>
+        <v>0.9840851174814134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9985185095877481</v>
+        <v>0.9827654906492969</v>
       </c>
       <c r="D4" t="n">
-        <v>1.007515476849199</v>
+        <v>0.9870965009367768</v>
       </c>
       <c r="E4" t="n">
-        <v>1.008067994456294</v>
+        <v>0.9943894699635467</v>
       </c>
       <c r="F4" t="n">
-        <v>1.016746859465403</v>
+        <v>0.9598872713207904</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9981862526935156</v>
+        <v>0.9898135264939222</v>
       </c>
       <c r="H4" t="n">
-        <v>1.024755852543866</v>
+        <v>1.007990333017499</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000535914051588</v>
+        <v>0.9975103297859154</v>
       </c>
       <c r="J4" t="n">
-        <v>1.023033198749522</v>
+        <v>0.977947219650781</v>
       </c>
       <c r="K4" t="n">
-        <v>1.003360292683481</v>
+        <v>0.9900121085468445</v>
       </c>
       <c r="L4" t="n">
-        <v>1.009485053106993</v>
+        <v>0.9670655065419573</v>
       </c>
       <c r="M4" t="n">
-        <v>1.013836474567206</v>
+        <v>1.004118553183406</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002045090754229</v>
+        <v>1.012248564048632</v>
       </c>
       <c r="O4" t="n">
-        <v>1.027824735448482</v>
+        <v>1.013719535575141</v>
       </c>
       <c r="P4" t="n">
-        <v>1.072392656971026</v>
+        <v>0.9640000025431316</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.042058201199998</v>
+        <v>1.015117384012925</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9662808229493867</v>
+        <v>1.034989886312539</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8751263198124298</v>
+        <v>0.7163503827839871</v>
       </c>
       <c r="T4" t="n">
-        <v>1.008841364398496</v>
+        <v>1.038582629106176</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9815061985004195</v>
+        <v>1.011403254592729</v>
       </c>
       <c r="V4" t="n">
-        <v>1.018313097063117</v>
+        <v>0.9775146040571812</v>
       </c>
       <c r="W4" t="n">
-        <v>1.00174826406764</v>
+        <v>0.9590447943710938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44374</v>
+        <v>44393</v>
       </c>
       <c r="B5" t="n">
-        <v>1.002052193064616</v>
+        <v>0.9835377934859606</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9960361110596794</v>
+        <v>0.9812673717430823</v>
       </c>
       <c r="D5" t="n">
-        <v>1.012430844403299</v>
+        <v>0.9792306379905451</v>
       </c>
       <c r="E5" t="n">
-        <v>1.009234815146741</v>
+        <v>0.9868929127204606</v>
       </c>
       <c r="F5" t="n">
-        <v>1.014120536002435</v>
+        <v>0.9480326780497382</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9964662186831773</v>
+        <v>0.9841550273533807</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02520322827786</v>
+        <v>0.9996230966310858</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9978025315784881</v>
+        <v>0.9899328823032482</v>
       </c>
       <c r="J5" t="n">
-        <v>1.023417742949282</v>
+        <v>0.9784679181749404</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9997708676163983</v>
+        <v>0.9871367977151071</v>
       </c>
       <c r="L5" t="n">
-        <v>1.001761480325777</v>
+        <v>0.969350735340722</v>
       </c>
       <c r="M5" t="n">
-        <v>1.014465379783497</v>
+        <v>0.978995048827888</v>
       </c>
       <c r="N5" t="n">
-        <v>1.002015032087054</v>
+        <v>1.002426057172245</v>
       </c>
       <c r="O5" t="n">
-        <v>1.022458533219861</v>
+        <v>0.9766578032620749</v>
       </c>
       <c r="P5" t="n">
-        <v>1.087576702584743</v>
+        <v>0.9799999872843426</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.062382488102152</v>
+        <v>1.040036854926867</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9876698123359087</v>
+        <v>1.02535497045689</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8867490105519195</v>
+        <v>0.783065729071624</v>
       </c>
       <c r="T5" t="n">
-        <v>1.025826016001777</v>
+        <v>1.0444881409172</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9796122795510048</v>
+        <v>1.012799609528416</v>
       </c>
       <c r="V5" t="n">
-        <v>1.008287699061832</v>
+        <v>0.9791111329467611</v>
       </c>
       <c r="W5" t="n">
-        <v>1.014017080812194</v>
+        <v>0.9535873544583392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44375</v>
+        <v>44395</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9976022566995768</v>
+        <v>0.9720507052132972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9935537125316106</v>
+        <v>0.9697784239314816</v>
       </c>
       <c r="D6" t="n">
-        <v>1.017346211957399</v>
+        <v>0.9740634187229955</v>
       </c>
       <c r="E6" t="n">
-        <v>1.010401635837189</v>
+        <v>0.9790621580489909</v>
       </c>
       <c r="F6" t="n">
-        <v>1.011494212539468</v>
+        <v>0.9408980097546258</v>
       </c>
       <c r="G6" t="n">
-        <v>0.994746184672839</v>
+        <v>0.971264076363114</v>
       </c>
       <c r="H6" t="n">
-        <v>1.025650604011854</v>
+        <v>0.9913689036501196</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9950691491053882</v>
+        <v>0.9769430903145091</v>
       </c>
       <c r="J6" t="n">
-        <v>1.023802287149042</v>
+        <v>0.9695282823392651</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9961814425493155</v>
+        <v>0.9762409456500875</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9940379075445612</v>
+        <v>0.9347358572110447</v>
       </c>
       <c r="M6" t="n">
-        <v>1.015094284999787</v>
+        <v>0.9691103797862529</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001984973419878</v>
+        <v>1.003017764119707</v>
       </c>
       <c r="O6" t="n">
-        <v>1.017092330991241</v>
+        <v>0.964796115405351</v>
       </c>
       <c r="P6" t="n">
-        <v>1.102760748198459</v>
+        <v>0.9939999898274741</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.082706775004305</v>
+        <v>1.026116018410962</v>
       </c>
       <c r="R6" t="n">
-        <v>1.009058801722431</v>
+        <v>1.028651143698316</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8983717012914093</v>
+        <v>0.7945255474452553</v>
       </c>
       <c r="T6" t="n">
-        <v>1.042810667605057</v>
+        <v>1.046653507262703</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9777183606015901</v>
+        <v>1.004188931643326</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9982623010605481</v>
+        <v>0.9460483778300118</v>
       </c>
       <c r="W6" t="n">
-        <v>1.026082267258294</v>
+        <v>0.956103733930361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44376</v>
+        <v>44396</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9996615088372707</v>
+        <v>0.9605636169406337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9939416747653601</v>
+        <v>0.9582894761198808</v>
       </c>
       <c r="D7" t="n">
-        <v>1.019298066753872</v>
+        <v>0.9688961994554458</v>
       </c>
       <c r="E7" t="n">
-        <v>1.010681856780536</v>
+        <v>0.9712314033775211</v>
       </c>
       <c r="F7" t="n">
-        <v>1.005614293426636</v>
+        <v>0.9337633414595133</v>
       </c>
       <c r="G7" t="n">
-        <v>1.003470108737402</v>
+        <v>0.9583731253728472</v>
       </c>
       <c r="H7" t="n">
-        <v>1.024979494899598</v>
+        <v>0.9831147106691536</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9993568704255016</v>
+        <v>0.96395329832577</v>
       </c>
       <c r="J7" t="n">
-        <v>1.027746212414425</v>
+        <v>0.9605886465035899</v>
       </c>
       <c r="K7" t="n">
-        <v>0.999541808065722</v>
+        <v>0.9653450935850679</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9949864128552606</v>
+        <v>0.9001209790813673</v>
       </c>
       <c r="M7" t="n">
-        <v>1.001677107234338</v>
+        <v>0.9592257107446178</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9914586576304041</v>
+        <v>1.003609471067169</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9904601101989987</v>
+        <v>0.9529344275486272</v>
       </c>
       <c r="P7" t="n">
-        <v>1.113496970877317</v>
+        <v>1.007999992370606</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.055216127779448</v>
+        <v>1.012195181895057</v>
       </c>
       <c r="R7" t="n">
-        <v>1.007549049431045</v>
+        <v>1.031947316939742</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8512071869736103</v>
+        <v>0.8059853658188867</v>
       </c>
       <c r="T7" t="n">
-        <v>1.071195921295036</v>
+        <v>1.048818873608206</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9808377765177341</v>
+        <v>0.9955782537582356</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9993317013234212</v>
+        <v>0.9129856227132627</v>
       </c>
       <c r="W7" t="n">
-        <v>1.029162781800143</v>
+        <v>0.9582837710436389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44377</v>
+        <v>44397</v>
       </c>
       <c r="B8" t="n">
-        <v>0.992595204513399</v>
+        <v>0.9657142324591296</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9866135375137087</v>
+        <v>0.9660899821636673</v>
       </c>
       <c r="D8" t="n">
-        <v>1.017587590237656</v>
+        <v>0.9840930882932527</v>
       </c>
       <c r="E8" t="n">
-        <v>1.012024203638411</v>
+        <v>0.9859578058207149</v>
       </c>
       <c r="F8" t="n">
-        <v>1.006359066167273</v>
+        <v>0.9616446446655295</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9932663202595219</v>
+        <v>0.9636338381155312</v>
       </c>
       <c r="H8" t="n">
-        <v>1.017672115184278</v>
+        <v>0.9859038508095739</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9893879531133678</v>
+        <v>0.9694739144980884</v>
       </c>
       <c r="J8" t="n">
-        <v>1.021404928737967</v>
+        <v>0.9578249840832481</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9922101544538717</v>
+        <v>0.9689770081931132</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9981029893786014</v>
+        <v>0.9001209790813673</v>
       </c>
       <c r="M8" t="n">
-        <v>1.015513581801543</v>
+        <v>0.9530477238567752</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9962707060620301</v>
+        <v>1.002307688696145</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9963232124884617</v>
+        <v>0.9495998383987225</v>
       </c>
       <c r="P8" t="n">
-        <v>1.119631934369655</v>
+        <v>1.033333333333333</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.057565715911365</v>
+        <v>1.066267858462616</v>
       </c>
       <c r="R8" t="n">
-        <v>1.07549068629319</v>
+        <v>1.052231273960947</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8040426726558113</v>
+        <v>0.7912408759124087</v>
       </c>
       <c r="T8" t="n">
-        <v>1.123778533545835</v>
+        <v>1.040944857860174</v>
       </c>
       <c r="U8" t="n">
-        <v>0.972816372734673</v>
+        <v>0.9990690967095418</v>
       </c>
       <c r="V8" t="n">
-        <v>1.00427749906787</v>
+        <v>0.9226981784872198</v>
       </c>
       <c r="W8" t="n">
-        <v>1.02347680232563</v>
+        <v>0.9686206731011573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44378</v>
+        <v>44398</v>
       </c>
       <c r="B9" t="n">
-        <v>1.004964766616714</v>
+        <v>0.9821623909677768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9974823360924148</v>
+        <v>0.9845430673357619</v>
       </c>
       <c r="D9" t="n">
-        <v>1.018880604970844</v>
+        <v>0.9931250670286247</v>
       </c>
       <c r="E9" t="n">
-        <v>1.017308616397306</v>
+        <v>0.9940838925748483</v>
       </c>
       <c r="F9" t="n">
-        <v>1.014551778984967</v>
+        <v>0.9790605622417773</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9979201956181525</v>
+        <v>0.9766942441322483</v>
       </c>
       <c r="H9" t="n">
-        <v>1.011706862670941</v>
+        <v>0.9925372948920117</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9944259377494079</v>
+        <v>0.9813813201726964</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03073267256321</v>
+        <v>0.9712745536244671</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9981670865970375</v>
+        <v>0.9859261595124251</v>
       </c>
       <c r="L9" t="n">
-        <v>1.020731689919089</v>
+        <v>0.9463637868462633</v>
       </c>
       <c r="M9" t="n">
-        <v>1.0109014769276</v>
+        <v>0.9645798770168661</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9996992297638627</v>
+        <v>0.9985798491528753</v>
       </c>
       <c r="O9" t="n">
-        <v>1.00864556067105</v>
+        <v>0.9622713498569523</v>
       </c>
       <c r="P9" t="n">
-        <v>1.122699416115824</v>
+        <v>1.056000010172526</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.018092115435102</v>
+        <v>1.148412353861367</v>
       </c>
       <c r="R9" t="n">
-        <v>1.074484120771352</v>
+        <v>1.054766732318021</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8257158762414022</v>
+        <v>0.8525547445255474</v>
       </c>
       <c r="T9" t="n">
-        <v>1.138203876456774</v>
+        <v>1.046063040185162</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9801693545350486</v>
+        <v>0.9962764756139914</v>
       </c>
       <c r="V9" t="n">
-        <v>1.013768196937717</v>
+        <v>0.9610164959763979</v>
       </c>
       <c r="W9" t="n">
-        <v>1.021824398636878</v>
+        <v>0.9885051273135643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44379</v>
+        <v>44399</v>
       </c>
       <c r="B10" t="n">
-        <v>1.004696728446756</v>
+        <v>0.9779521009614388</v>
       </c>
       <c r="C10" t="n">
-        <v>1.002971850993222</v>
+        <v>0.990452456306785</v>
       </c>
       <c r="D10" t="n">
-        <v>1.027085753625059</v>
+        <v>0.9966985792516631</v>
       </c>
       <c r="E10" t="n">
-        <v>1.024938514097689</v>
+        <v>0.9960886316970617</v>
       </c>
       <c r="F10" t="n">
-        <v>1.004272766742473</v>
+        <v>0.9639147323523073</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0008799868995</v>
+        <v>0.9825230641278424</v>
       </c>
       <c r="H10" t="n">
-        <v>1.010886567632334</v>
+        <v>0.9947987151054977</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9958194942027969</v>
+        <v>0.9966443216301107</v>
       </c>
       <c r="J10" t="n">
-        <v>1.035822140017437</v>
+        <v>0.9837547927487863</v>
       </c>
       <c r="K10" t="n">
-        <v>1.000763726056722</v>
+        <v>0.9915254604206384</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01978318460839</v>
+        <v>0.9680064891390611</v>
       </c>
       <c r="M10" t="n">
-        <v>1.029350056368749</v>
+        <v>0.9703459143187282</v>
       </c>
       <c r="N10" t="n">
-        <v>1.006255598713581</v>
+        <v>1.000532522709412</v>
       </c>
       <c r="O10" t="n">
-        <v>1.016694826105828</v>
+        <v>0.9718940837083275</v>
       </c>
       <c r="P10" t="n">
-        <v>1.134969343100499</v>
+        <v>1.068000030517578</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.00970390474945</v>
+        <v>1.261389803259574</v>
       </c>
       <c r="R10" t="n">
-        <v>1.060392491439729</v>
+        <v>1.042596358105298</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8497473466670761</v>
+        <v>0.9445255474452554</v>
       </c>
       <c r="T10" t="n">
-        <v>1.150302484733045</v>
+        <v>1.040944857860174</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9852941213969579</v>
+        <v>1.009541536787636</v>
       </c>
       <c r="V10" t="n">
-        <v>1.018179396534352</v>
+        <v>0.9817721836105671</v>
       </c>
       <c r="W10" t="n">
-        <v>1.030876827932387</v>
+        <v>0.9915730530627446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44381</v>
+        <v>44400</v>
       </c>
       <c r="B11" t="n">
-        <v>1.007630444783586</v>
+        <v>0.9862744819900803</v>
       </c>
       <c r="C11" t="n">
-        <v>1.009043395362796</v>
+        <v>0.999454050734554</v>
       </c>
       <c r="D11" t="n">
-        <v>1.027654268104238</v>
+        <v>1.007041899700918</v>
       </c>
       <c r="E11" t="n">
-        <v>1.024247754715798</v>
+        <v>1.006194401118431</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9997343388686905</v>
+        <v>0.9683716665409492</v>
       </c>
       <c r="G11" t="n">
-        <v>1.001259867688443</v>
+        <v>0.9923232543874932</v>
       </c>
       <c r="H11" t="n">
-        <v>1.004921315118997</v>
+        <v>0.9797980346366468</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9953907138926374</v>
+        <v>1.007685636561831</v>
       </c>
       <c r="J11" t="n">
-        <v>1.035393914260094</v>
+        <v>0.9873194997343703</v>
       </c>
       <c r="K11" t="n">
-        <v>1.002520237720842</v>
+        <v>1.002572669321214</v>
       </c>
       <c r="L11" t="n">
-        <v>1.012104754132606</v>
+        <v>0.9701572625498364</v>
       </c>
       <c r="M11" t="n">
-        <v>1.024877663780266</v>
+        <v>0.9616968583659349</v>
       </c>
       <c r="N11" t="n">
-        <v>1.007919762785871</v>
+        <v>0.9973964352579512</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01523735873685</v>
+        <v>0.9455030366749562</v>
       </c>
       <c r="P11" t="n">
-        <v>1.128323120461378</v>
+        <v>1.082666651407878</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9982455619861845</v>
+        <v>1.237229673043748</v>
       </c>
       <c r="R11" t="n">
-        <v>1.039590617278594</v>
+        <v>1.014705929291333</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8632977910642429</v>
+        <v>0.9255474452554744</v>
       </c>
       <c r="T11" t="n">
-        <v>1.150457605108965</v>
+        <v>1.042913361797182</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9815062409992741</v>
+        <v>1.013265061173645</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01087199804409</v>
+        <v>0.985896685253587</v>
       </c>
       <c r="W11" t="n">
-        <v>1.034008691728156</v>
+        <v>0.9958708465609459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44382</v>
+        <v>44402</v>
       </c>
       <c r="B12" t="n">
-        <v>1.010564161120416</v>
+        <v>0.9861200909844768</v>
       </c>
       <c r="C12" t="n">
-        <v>1.01511493973237</v>
+        <v>1.000541556079952</v>
       </c>
       <c r="D12" t="n">
-        <v>1.028222782583418</v>
+        <v>1.007168135562932</v>
       </c>
       <c r="E12" t="n">
-        <v>1.023556995333906</v>
+        <v>1.007392879200492</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9951959109949079</v>
+        <v>0.9699646973920796</v>
       </c>
       <c r="G12" t="n">
-        <v>1.001639748477386</v>
+        <v>0.9907302225266087</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9989560626056599</v>
+        <v>0.9705639020982459</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9949619335824779</v>
+        <v>1.007793908228077</v>
       </c>
       <c r="J12" t="n">
-        <v>1.034965688502751</v>
+        <v>0.9869376541499866</v>
       </c>
       <c r="K12" t="n">
-        <v>1.004276749384962</v>
+        <v>1.001967350219873</v>
       </c>
       <c r="L12" t="n">
-        <v>1.004426323656822</v>
+        <v>0.9690818758444487</v>
       </c>
       <c r="M12" t="n">
-        <v>1.020405271191783</v>
+        <v>0.9619027938807418</v>
       </c>
       <c r="N12" t="n">
-        <v>1.009583926858161</v>
+        <v>0.996213021363027</v>
       </c>
       <c r="O12" t="n">
-        <v>1.013779891367871</v>
+        <v>0.9486947563976317</v>
       </c>
       <c r="P12" t="n">
-        <v>1.121676897822256</v>
+        <v>1.087999979654948</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9867872192229186</v>
+        <v>1.291532495410689</v>
       </c>
       <c r="R12" t="n">
-        <v>1.018788743117458</v>
+        <v>1.020537560889834</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8768482354614097</v>
+        <v>0.9182481751824817</v>
       </c>
       <c r="T12" t="n">
-        <v>1.150612725484886</v>
+        <v>1.042716499388687</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9777183606015901</v>
+        <v>1.020712109945662</v>
       </c>
       <c r="V12" t="n">
-        <v>1.003564599553828</v>
+        <v>0.9885576851630413</v>
       </c>
       <c r="W12" t="n">
-        <v>1.03708381821461</v>
+        <v>0.9934602599169443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44383</v>
+        <v>44403</v>
       </c>
       <c r="B13" t="n">
-        <v>1.001537362812941</v>
+        <v>0.9859656999788733</v>
       </c>
       <c r="C13" t="n">
-        <v>1.009515193608655</v>
+        <v>1.00162906142535</v>
       </c>
       <c r="D13" t="n">
-        <v>1.028791297062598</v>
+        <v>1.007294371424946</v>
       </c>
       <c r="E13" t="n">
-        <v>1.022866235952014</v>
+        <v>1.008591357282554</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9906574831211252</v>
+        <v>0.97155772824321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.992008981986937</v>
+        <v>0.9891371906657241</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9929908100923232</v>
+        <v>0.9613297695598449</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9890663065446367</v>
+        <v>1.007902179894324</v>
       </c>
       <c r="J13" t="n">
-        <v>1.034537462745408</v>
+        <v>0.986555808565603</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9989308126537596</v>
+        <v>1.001362031118532</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9967478931810377</v>
+        <v>0.9680064891390611</v>
       </c>
       <c r="M13" t="n">
-        <v>1.0159328786033</v>
+        <v>0.9621087293955487</v>
       </c>
       <c r="N13" t="n">
-        <v>1.011248090930451</v>
+        <v>0.9950296074681029</v>
       </c>
       <c r="O13" t="n">
-        <v>1.012322423998893</v>
+        <v>0.9518864761203072</v>
       </c>
       <c r="P13" t="n">
-        <v>1.115030675183134</v>
+        <v>1.093333307902018</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9753288764596527</v>
+        <v>1.345835317777631</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9979868689563232</v>
+        <v>1.026369192488334</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8903986798585765</v>
+        <v>0.910948905109489</v>
       </c>
       <c r="T13" t="n">
-        <v>1.150767845860807</v>
+        <v>1.042519636980191</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9723707297469798</v>
+        <v>1.028159158717679</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9962572010635669</v>
+        <v>0.9912186850724956</v>
       </c>
       <c r="W13" t="n">
-        <v>1.040101896402946</v>
+        <v>0.9909653310293526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44384</v>
+        <v>44404</v>
       </c>
       <c r="B14" t="n">
-        <v>1.008603667136812</v>
+        <v>0.9818536774834253</v>
       </c>
       <c r="C14" t="n">
-        <v>1.01281326012717</v>
+        <v>0.9991745076497308</v>
       </c>
       <c r="D14" t="n">
-        <v>1.028890917845878</v>
+        <v>0.9950682840234645</v>
       </c>
       <c r="E14" t="n">
-        <v>1.026302018384196</v>
+        <v>1.00383842617845</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9812278775965363</v>
+        <v>0.9605621882802191</v>
       </c>
       <c r="G14" t="n">
-        <v>1.003605697918297</v>
+        <v>0.982813735158615</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9921706060762453</v>
+        <v>0.9414292532776838</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9926036827673415</v>
+        <v>0.9995669959220979</v>
       </c>
       <c r="J14" t="n">
-        <v>1.035339312313115</v>
+        <v>0.9861739629812193</v>
       </c>
       <c r="K14" t="n">
-        <v>1.007026119489406</v>
+        <v>0.9965194061472161</v>
       </c>
       <c r="L14" t="n">
-        <v>0.982249252929305</v>
+        <v>0.9645113669672137</v>
       </c>
       <c r="M14" t="n">
-        <v>1.016352175405056</v>
+        <v>0.945634202436457</v>
       </c>
       <c r="N14" t="n">
-        <v>1.015097711319314</v>
+        <v>0.9966864049787353</v>
       </c>
       <c r="O14" t="n">
-        <v>1.00874495584648</v>
+        <v>0.9375953174590653</v>
       </c>
       <c r="P14" t="n">
-        <v>1.102760748198459</v>
+        <v>1.058933321634929</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9915413393154286</v>
+        <v>1.328347923570528</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9899345367643593</v>
+        <v>1.026876303504056</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8759124087591239</v>
+        <v>0.8496350364963503</v>
       </c>
       <c r="T14" t="n">
-        <v>1.159609139255164</v>
+        <v>1.045275590551181</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9661318979146919</v>
+        <v>1.033279038039375</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9815533043917413</v>
+        <v>0.9909526307604667</v>
       </c>
       <c r="W14" t="n">
-        <v>1.023697020671392</v>
+        <v>0.9770234016226808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44385</v>
+        <v>44405</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9916361347408321</v>
+        <v>0.9847307089877564</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9988138948178836</v>
+        <v>1.004830542039758</v>
       </c>
       <c r="D15" t="n">
-        <v>1.021504591737038</v>
+        <v>1.001991404693283</v>
       </c>
       <c r="E15" t="n">
-        <v>1.017515821214669</v>
+        <v>1.00365144934331</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9720072210204557</v>
+        <v>0.9750812484251851</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9862058150083926</v>
+        <v>0.9860581186212393</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9707702990936613</v>
+        <v>0.9677371268313886</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9741665383378912</v>
+        <v>1.006386706915207</v>
       </c>
       <c r="J15" t="n">
-        <v>1.021691289314775</v>
+        <v>0.9947131254261536</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9897663184718721</v>
+        <v>1.002875310831737</v>
       </c>
       <c r="L15" t="n">
-        <v>0.992276427218784</v>
+        <v>0.9744589119307979</v>
       </c>
       <c r="M15" t="n">
-        <v>1.006708588882725</v>
+        <v>0.9542833369456168</v>
       </c>
       <c r="N15" t="n">
-        <v>1.014436053512688</v>
+        <v>1.001715936604336</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9984100562746523</v>
+        <v>0.951695886632546</v>
       </c>
       <c r="P15" t="n">
-        <v>1.13190186135433</v>
+        <v>1.05733331044515</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.004229330342286</v>
+        <v>1.306718870498486</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9763461901936558</v>
+        <v>1.026876303504056</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8062886019090396</v>
+        <v>0.8878832294993158</v>
       </c>
       <c r="T15" t="n">
-        <v>1.16845050365366</v>
+        <v>1.046456644854207</v>
       </c>
       <c r="U15" t="n">
-        <v>0.9605614880650893</v>
+        <v>1.027693707072451</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9907767031876817</v>
+        <v>0.9944118443603591</v>
       </c>
       <c r="W15" t="n">
-        <v>1.016565578265464</v>
+        <v>0.9953011792224951</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44386</v>
+        <v>44406</v>
       </c>
       <c r="B16" t="n">
-        <v>1.004499281007581</v>
+        <v>0.9934038789900704</v>
       </c>
       <c r="C16" t="n">
-        <v>1.010128096431651</v>
+        <v>1.00675228345413</v>
       </c>
       <c r="D16" t="n">
-        <v>1.031477015827234</v>
+        <v>1.003055643601396</v>
       </c>
       <c r="E16" t="n">
-        <v>1.028991311540952</v>
+        <v>1.007872960877854</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9930530057226491</v>
+        <v>0.981685655393264</v>
       </c>
       <c r="G16" t="n">
-        <v>1.00329998210048</v>
+        <v>0.9904980876938416</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9879949475214155</v>
+        <v>0.9725614163395527</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9844570204372742</v>
+        <v>1.015804277201563</v>
       </c>
       <c r="J16" t="n">
-        <v>1.021887656560678</v>
+        <v>0.9991188705349854</v>
       </c>
       <c r="K16" t="n">
-        <v>1.003665826805925</v>
+        <v>1.007869256558315</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01422757966049</v>
+        <v>0.9909934376335195</v>
       </c>
       <c r="M16" t="n">
-        <v>1.014255771368962</v>
+        <v>0.9769356936798183</v>
       </c>
       <c r="N16" t="n">
-        <v>1.017804551662359</v>
+        <v>1.012840225851747</v>
       </c>
       <c r="O16" t="n">
-        <v>1.021166699204498</v>
+        <v>0.9479801911957104</v>
       </c>
       <c r="P16" t="n">
-        <v>1.12730060216781</v>
+        <v>1.082666651407878</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9922461978287956</v>
+        <v>1.272204373683047</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9627578436229524</v>
+        <v>1.037018330375427</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7888826501965186</v>
+        <v>0.9078832473197993</v>
       </c>
       <c r="T16" t="n">
-        <v>1.180083821806309</v>
+        <v>1.042126032311146</v>
       </c>
       <c r="U16" t="n">
-        <v>0.958333273126623</v>
+        <v>1.020479339735136</v>
       </c>
       <c r="V16" t="n">
-        <v>1.009891799456142</v>
+        <v>1.011841396305002</v>
       </c>
       <c r="W16" t="n">
-        <v>1.024085764658787</v>
+        <v>0.9984581019513693</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44388</v>
+        <v>44407</v>
       </c>
       <c r="B17" t="n">
-        <v>1.004746107523801</v>
+        <v>0.9869340529749598</v>
       </c>
       <c r="C17" t="n">
-        <v>1.009832668142444</v>
+        <v>1.002310474352285</v>
       </c>
       <c r="D17" t="n">
-        <v>1.032575722072539</v>
+        <v>0.9958895296681779</v>
       </c>
       <c r="E17" t="n">
-        <v>1.03076692574168</v>
+        <v>1.002424351221564</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9934493707127583</v>
+        <v>0.9756466037222079</v>
       </c>
       <c r="G17" t="n">
-        <v>1.006580166057088</v>
+        <v>0.9844134153462674</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9885914636704961</v>
+        <v>0.9631388321166947</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9873512261947396</v>
+        <v>1.008443455638472</v>
       </c>
       <c r="J17" t="n">
-        <v>1.021670813584658</v>
+        <v>1.002194854286062</v>
       </c>
       <c r="K17" t="n">
-        <v>1.006491525816286</v>
+        <v>1.003026631586999</v>
       </c>
       <c r="L17" t="n">
-        <v>1.011111054826812</v>
+        <v>0.9954295424024707</v>
       </c>
       <c r="M17" t="n">
-        <v>1.016142566990521</v>
+        <v>0.9732289329696593</v>
       </c>
       <c r="N17" t="n">
-        <v>1.017172952522909</v>
+        <v>1.00485211434449</v>
       </c>
       <c r="O17" t="n">
-        <v>1.032097818196292</v>
+        <v>0.9337843272783493</v>
       </c>
       <c r="P17" t="n">
-        <v>1.138803676999577</v>
+        <v>1.043999989827474</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.006696379954591</v>
+        <v>1.159456982309319</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9776043491002679</v>
+        <v>1.020284053742741</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7790567097136438</v>
+        <v>0.9068613316890968</v>
       </c>
       <c r="T17" t="n">
-        <v>1.181014473057693</v>
+        <v>1.045669315368171</v>
       </c>
       <c r="U17" t="n">
-        <v>0.9578876726377841</v>
+        <v>1.020479339735136</v>
       </c>
       <c r="V17" t="n">
-        <v>1.007285200055153</v>
+        <v>1.015566765725627</v>
       </c>
       <c r="W17" t="n">
-        <v>1.025561592035306</v>
+        <v>0.990265654313926</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44389</v>
+        <v>44409</v>
       </c>
       <c r="B18" t="n">
-        <v>1.004992934040021</v>
+        <v>0.9904005524909203</v>
       </c>
       <c r="C18" t="n">
-        <v>1.009537239853237</v>
+        <v>1.007986128794039</v>
       </c>
       <c r="D18" t="n">
-        <v>1.033674428317844</v>
+        <v>0.9961742811846984</v>
       </c>
       <c r="E18" t="n">
-        <v>1.032542539942409</v>
+        <v>1.001500714610096</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9938457357028676</v>
+        <v>0.9732910279804867</v>
       </c>
       <c r="G18" t="n">
-        <v>1.009860350013697</v>
+        <v>0.9851841574145661</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9891879798195768</v>
+        <v>0.9666440518510826</v>
       </c>
       <c r="I18" t="n">
-        <v>0.990245431952205</v>
+        <v>1.01039189140195</v>
       </c>
       <c r="J18" t="n">
-        <v>1.021453970608637</v>
+        <v>1.004798249123099</v>
       </c>
       <c r="K18" t="n">
-        <v>1.009317224826647</v>
+        <v>1.006431601142446</v>
       </c>
       <c r="L18" t="n">
-        <v>1.007994529993133</v>
+        <v>0.9773491386958095</v>
       </c>
       <c r="M18" t="n">
-        <v>1.018029362612081</v>
+        <v>0.971169656377956</v>
       </c>
       <c r="N18" t="n">
-        <v>1.016541353383459</v>
+        <v>1.004230792705829</v>
       </c>
       <c r="O18" t="n">
-        <v>1.043028937188087</v>
+        <v>0.9358327281402326</v>
       </c>
       <c r="P18" t="n">
-        <v>1.150306751831343</v>
+        <v>1.046666653951009</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.021146562080387</v>
+        <v>1.137942958249516</v>
       </c>
       <c r="R18" t="n">
-        <v>0.9924508545775836</v>
+        <v>1.032707983463325</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.9173722538634809</v>
       </c>
       <c r="T18" t="n">
-        <v>1.181945124309077</v>
+        <v>1.073425232894777</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9574420721489453</v>
+        <v>1.019781206655204</v>
       </c>
       <c r="V18" t="n">
-        <v>1.004678600654164</v>
+        <v>0.9926822375604126</v>
       </c>
       <c r="W18" t="n">
-        <v>1.027008586558659</v>
+        <v>0.9866325180812346</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44390</v>
+        <v>44410</v>
       </c>
       <c r="B19" t="n">
-        <v>1.004894244754936</v>
+        <v>0.993867052006881</v>
       </c>
       <c r="C19" t="n">
-        <v>1.010899714992006</v>
+        <v>1.013661783235793</v>
       </c>
       <c r="D19" t="n">
-        <v>1.029774281503942</v>
+        <v>0.996459032701219</v>
       </c>
       <c r="E19" t="n">
-        <v>1.028911281267432</v>
+        <v>1.000577077998629</v>
       </c>
       <c r="F19" t="n">
-        <v>0.975134543450801</v>
+        <v>0.9709354522387654</v>
       </c>
       <c r="G19" t="n">
-        <v>1.009804702864836</v>
+        <v>0.985954899482865</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9905301980440896</v>
+        <v>0.9701492715854705</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9950691491053885</v>
+        <v>1.012340327165427</v>
       </c>
       <c r="J19" t="n">
-        <v>1.022067643222488</v>
+        <v>1.007401643960136</v>
       </c>
       <c r="K19" t="n">
-        <v>1.010691946295332</v>
+        <v>1.009836570697894</v>
       </c>
       <c r="L19" t="n">
-        <v>1.023577205851187</v>
+        <v>0.9592687349891483</v>
       </c>
       <c r="M19" t="n">
-        <v>1.009643586522331</v>
+        <v>0.9691103797862528</v>
       </c>
       <c r="N19" t="n">
-        <v>1.017864668996711</v>
+        <v>1.003609471067169</v>
       </c>
       <c r="O19" t="n">
-        <v>1.028520350043879</v>
+        <v>0.9378811290021158</v>
       </c>
       <c r="P19" t="n">
-        <v>1.133435565660148</v>
+        <v>1.049333318074544</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.007518789579388</v>
+        <v>1.116428934189712</v>
       </c>
       <c r="R19" t="n">
-        <v>1.006039201148287</v>
+        <v>1.045131913183909</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6726558113419425</v>
+        <v>0.927883176037865</v>
       </c>
       <c r="T19" t="n">
-        <v>1.223825069658611</v>
+        <v>1.101181150421382</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9672459628850705</v>
+        <v>1.019083073575273</v>
       </c>
       <c r="V19" t="n">
-        <v>1.022456895602222</v>
+        <v>0.9697977093951986</v>
       </c>
       <c r="W19" t="n">
-        <v>1.017084697304494</v>
+        <v>0.9828768127874501</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44391</v>
+        <v>44411</v>
       </c>
       <c r="B20" t="n">
-        <v>1.000169280015867</v>
+        <v>0.9972352840119513</v>
       </c>
       <c r="C20" t="n">
-        <v>1.003104128460711</v>
+        <v>1.017199534475886</v>
       </c>
       <c r="D20" t="n">
-        <v>1.027480057344298</v>
+        <v>1.001903844927611</v>
       </c>
       <c r="E20" t="n">
-        <v>1.030109895593839</v>
+        <v>1.008785238563065</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9592369843679603</v>
+        <v>0.9744765194057352</v>
       </c>
       <c r="G20" t="n">
-        <v>1.00976254593388</v>
+        <v>0.9850904314683671</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9947058565989194</v>
+        <v>0.9745213874718462</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9949619335824781</v>
+        <v>1.013747611065381</v>
       </c>
       <c r="J20" t="n">
-        <v>1.016462786658973</v>
+        <v>1.008266736888444</v>
       </c>
       <c r="K20" t="n">
-        <v>1.009011763537128</v>
+        <v>1.012257919263846</v>
       </c>
       <c r="L20" t="n">
-        <v>0.994850882559639</v>
+        <v>0.9498589090181108</v>
       </c>
       <c r="M20" t="n">
-        <v>1.020125766648174</v>
+        <v>0.9752882881177288</v>
       </c>
       <c r="N20" t="n">
-        <v>1.028811989691024</v>
+        <v>1.002899440787953</v>
       </c>
       <c r="O20" t="n">
-        <v>1.04889203947755</v>
+        <v>0.9337843272783495</v>
       </c>
       <c r="P20" t="n">
-        <v>1.122699416115823</v>
+        <v>1.073333358764649</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.034539411620611</v>
+        <v>1.135757055917354</v>
       </c>
       <c r="R20" t="n">
-        <v>1.031202763246017</v>
+        <v>1.038539566701057</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5855137837328044</v>
+        <v>0.8854014598540145</v>
       </c>
       <c r="T20" t="n">
-        <v>1.222429128283604</v>
+        <v>1.10314965435839</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9645721899566198</v>
+        <v>1.027461025637748</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9993317013234212</v>
+        <v>0.9634113908194714</v>
       </c>
       <c r="W20" t="n">
-        <v>0.9969324756694122</v>
+        <v>1.00090894356984</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44392</v>
+        <v>44412</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9889985895627645</v>
+        <v>0.9997894854996831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9921383608531034</v>
+        <v>1.019732739067559</v>
       </c>
       <c r="D21" t="n">
-        <v>1.020336411300367</v>
+        <v>1.003209751440295</v>
       </c>
       <c r="E21" t="n">
-        <v>1.026749429008146</v>
+        <v>1.004112154028822</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9539798713576291</v>
+        <v>0.962529911457272</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9995734343134439</v>
+        <v>0.9937696829125383</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9970919211952423</v>
+        <v>0.9797225803489247</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9877800473956402</v>
+        <v>1.019593042236439</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9989280705579674</v>
+        <v>1.008418986203396</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9992362739432782</v>
+        <v>1.018462503193106</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9747967407393318</v>
+        <v>0.9174620319932034</v>
       </c>
       <c r="M21" t="n">
-        <v>1.022222170684268</v>
+        <v>0.9695222508158666</v>
       </c>
       <c r="N21" t="n">
-        <v>1.028992525258459</v>
+        <v>1.003136087451461</v>
       </c>
       <c r="O21" t="n">
-        <v>1.057338809797741</v>
+        <v>0.9102515410526631</v>
       </c>
       <c r="P21" t="n">
-        <v>1.108895711690796</v>
+        <v>1.109333292643229</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.036583626792834</v>
+        <v>1.126323096965464</v>
       </c>
       <c r="R21" t="n">
-        <v>1.027176597150035</v>
+        <v>1.030425983892575</v>
       </c>
       <c r="S21" t="n">
-        <v>0.5510387559876823</v>
+        <v>0.8240875912408759</v>
       </c>
       <c r="T21" t="n">
-        <v>1.227547674664147</v>
+        <v>1.111023670106422</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9683600278554493</v>
+        <v>1.02373750125174</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9820880045231778</v>
+        <v>0.936402259502534</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9848170023108068</v>
+        <v>1.017379184375549</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44393</v>
+        <v>44413</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9884485328147039</v>
+        <v>0.9992982849989436</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9906259540275516</v>
+        <v>1.026651025220212</v>
       </c>
       <c r="D22" t="n">
-        <v>1.012205669916195</v>
+        <v>1.01098739179144</v>
       </c>
       <c r="E22" t="n">
-        <v>1.019008914751546</v>
+        <v>1.010142296164626</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9421982343867019</v>
+        <v>0.9799238953022765</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9938591403908246</v>
+        <v>0.9970970003862829</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9888151515374933</v>
+        <v>0.977762701234055</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9802765146400713</v>
+        <v>1.02338172468423</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9994599401329601</v>
+        <v>1.00619205884392</v>
       </c>
       <c r="K22" t="n">
-        <v>0.996334173194075</v>
+        <v>1.02209448996174</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9771002388682694</v>
+        <v>0.9300981719195207</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9966457055586377</v>
+        <v>0.959637503217865</v>
       </c>
       <c r="N22" t="n">
-        <v>1.019007540824718</v>
+        <v>0.9991716012446841</v>
       </c>
       <c r="O22" t="n">
-        <v>1.018682350532894</v>
+        <v>0.8958650876475407</v>
       </c>
       <c r="P22" t="n">
-        <v>1.12730060216781</v>
+        <v>1.103999964396159</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.062030058845469</v>
+        <v>1.138978394909477</v>
       </c>
       <c r="R22" t="n">
-        <v>1.017614416675314</v>
+        <v>1.038539566701057</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6023582531320183</v>
+        <v>0.7633576998745438</v>
       </c>
       <c r="T22" t="n">
-        <v>1.234527665555736</v>
+        <v>1.114960677980437</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9696969568185291</v>
+        <v>1.030020876522772</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9836920029338649</v>
+        <v>0.9485098116282683</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9792980230421439</v>
+        <v>1.030010619011294</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44395</v>
+        <v>44414</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9769040902679832</v>
+        <v>0.9996631905048641</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9790274333650103</v>
+        <v>1.024471578691635</v>
       </c>
       <c r="D23" t="n">
-        <v>1.006864447493818</v>
+        <v>1.006958383194676</v>
       </c>
       <c r="E23" t="n">
-        <v>1.010923327433401</v>
+        <v>1.011834553452769</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9351074747259499</v>
+        <v>0.9850732934353414</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9808410801117844</v>
+        <v>0.9981596813058078</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9806502030576105</v>
+        <v>0.9693201025773438</v>
       </c>
       <c r="I23" t="n">
-        <v>0.967413432461213</v>
+        <v>1.025546662486659</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9903285136128144</v>
+        <v>1.010621858757812</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9853368020256877</v>
+        <v>1.02194309704589</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9422086310571757</v>
+        <v>0.9192095417994215</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9865828222345506</v>
+        <v>0.9275123484716425</v>
       </c>
       <c r="N23" t="n">
-        <v>1.019609035405898</v>
+        <v>0.9742011798204052</v>
       </c>
       <c r="O23" t="n">
-        <v>1.006310266854438</v>
+        <v>0.8722370793665655</v>
       </c>
       <c r="P23" t="n">
-        <v>1.14340489961883</v>
+        <v>1.103999964396159</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.047814844495969</v>
+        <v>1.14035900638106</v>
       </c>
       <c r="R23" t="n">
-        <v>1.020885706625603</v>
+        <v>1.05070994091378</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6111734980348116</v>
+        <v>0.8052554388115876</v>
       </c>
       <c r="T23" t="n">
-        <v>1.237087009750147</v>
+        <v>1.131889763779527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.9614527315416214</v>
+        <v>1.015825000834493</v>
       </c>
       <c r="V23" t="n">
-        <v>0.950474560389398</v>
+        <v>0.94065983905592</v>
       </c>
       <c r="W23" t="n">
-        <v>0.9820223982810017</v>
+        <v>1.015198326585625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44396</v>
+        <v>44416</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9653596477212625</v>
+        <v>1.000315771750475</v>
       </c>
       <c r="C24" t="n">
-        <v>0.967428912702469</v>
+        <v>1.024410457965276</v>
       </c>
       <c r="D24" t="n">
-        <v>1.00152322507144</v>
+        <v>1.007787118811774</v>
       </c>
       <c r="E24" t="n">
-        <v>1.002837740115256</v>
+        <v>1.011359037618314</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9280167150651979</v>
+        <v>0.9822356570784165</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9678230198327442</v>
+        <v>0.9976517800632078</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9724852545777277</v>
+        <v>0.9710538488726074</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9545503502823548</v>
+        <v>1.026304398976218</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9811970870926687</v>
+        <v>1.011623164464364</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9743394308573006</v>
+        <v>1.022775433360418</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9073170232460819</v>
+        <v>0.9071111721453564</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9765199389104635</v>
+        <v>0.911655667335155</v>
       </c>
       <c r="N24" t="n">
-        <v>1.020210529987077</v>
+        <v>0.9655621319832889</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9939381831759829</v>
+        <v>0.8715225141646442</v>
       </c>
       <c r="P24" t="n">
-        <v>1.15950919706985</v>
+        <v>1.093333307902018</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.033599630146469</v>
+        <v>1.147607019113336</v>
       </c>
       <c r="R24" t="n">
-        <v>1.024156996575892</v>
+        <v>1.049949322750965</v>
       </c>
       <c r="S24" t="n">
-        <v>0.619988742937605</v>
+        <v>0.7895620081546533</v>
       </c>
       <c r="T24" t="n">
-        <v>1.239646353944557</v>
+        <v>1.135629909245047</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9532085062647137</v>
+        <v>1.01733765209962</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9172571178449311</v>
+        <v>0.9296167579500598</v>
       </c>
       <c r="W24" t="n">
-        <v>0.9843918650806261</v>
+        <v>1.020181009629786</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44397</v>
+        <v>44417</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9705359799233076</v>
+        <v>1.000968352996087</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9753038140433716</v>
+        <v>1.024349337238918</v>
       </c>
       <c r="D25" t="n">
-        <v>1.01723186045307</v>
+        <v>1.008615854428873</v>
       </c>
       <c r="E25" t="n">
-        <v>1.018043377098165</v>
+        <v>1.01088352178386</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9557264293623358</v>
+        <v>0.9793980207214916</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9731356050443926</v>
+        <v>0.9971438788206076</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9752442384786638</v>
+        <v>0.9727875951678708</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9600171152285545</v>
+        <v>1.027062135465776</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9783741331399888</v>
+        <v>1.012624470170917</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9780051848303002</v>
+        <v>1.023607769674945</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9073170232460819</v>
+        <v>0.8950128024912913</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9702305668568072</v>
+        <v>0.8957989861986675</v>
       </c>
       <c r="N25" t="n">
-        <v>1.018887214373825</v>
+        <v>0.9569230841461726</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9904601101989988</v>
+        <v>0.870807948962723</v>
       </c>
       <c r="P25" t="n">
-        <v>1.188650310225722</v>
+        <v>1.082666651407878</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.088815757925917</v>
+        <v>1.154855031845613</v>
       </c>
       <c r="R25" t="n">
-        <v>1.044287827055802</v>
+        <v>1.04918870458815</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6086468276249295</v>
+        <v>0.773868577497719</v>
       </c>
       <c r="T25" t="n">
-        <v>1.230339699422438</v>
+        <v>1.139370054710568</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9565507861735588</v>
+        <v>1.018850303364746</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9270151147886859</v>
+        <v>0.9185736768441997</v>
       </c>
       <c r="W25" t="n">
-        <v>0.9949520614220762</v>
+        <v>1.024938267780225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44398</v>
+        <v>44418</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9870662630024684</v>
+        <v>1.004996224512892</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9939328907147847</v>
+        <v>1.02953363734177</v>
       </c>
       <c r="D26" t="n">
-        <v>1.026567985908934</v>
+        <v>1.003722847690152</v>
       </c>
       <c r="E26" t="n">
-        <v>1.02643390735507</v>
+        <v>1.011887004965188</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9730351647788423</v>
+        <v>0.9813920643760364</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9863247912357556</v>
+        <v>0.9987460946491666</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9818059616298166</v>
+        <v>0.9745213874718464</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9718083693042368</v>
+        <v>1.027928143621581</v>
       </c>
       <c r="J26" t="n">
-        <v>0.992112249350844</v>
+        <v>1.01362577587747</v>
       </c>
       <c r="K26" t="n">
-        <v>0.995112255203075</v>
+        <v>1.027088435688318</v>
       </c>
       <c r="L26" t="n">
-        <v>0.953929520524621</v>
+        <v>0.9193439971874108</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9819706373879195</v>
+        <v>0.8904448199264192</v>
       </c>
       <c r="N26" t="n">
-        <v>1.015097711319314</v>
+        <v>0.9572189601920768</v>
       </c>
       <c r="O26" t="n">
-        <v>1.003676863327843</v>
+        <v>0.8854802139108957</v>
       </c>
       <c r="P26" t="n">
-        <v>1.214723941635424</v>
+        <v>1.090666707356771</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.17269732699618</v>
+        <v>1.168890941261209</v>
       </c>
       <c r="R26" t="n">
-        <v>1.046804144869026</v>
+        <v>1.045131913183909</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6558113419427285</v>
+        <v>0.7373722716839644</v>
       </c>
       <c r="T26" t="n">
-        <v>1.236389110066782</v>
+        <v>1.150393748846579</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9538770132451082</v>
+        <v>1.026995573992519</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9655127083831353</v>
+        <v>0.9397284967007639</v>
       </c>
       <c r="W26" t="n">
-        <v>1.015363576006951</v>
+        <v>1.006093292820353</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44399</v>
+        <v>44419</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9828349512958393</v>
+        <v>1.013290509530749</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9998986389458105</v>
+        <v>1.037600634870752</v>
       </c>
       <c r="D27" t="n">
-        <v>1.030261834113171</v>
+        <v>1.002165132282854</v>
       </c>
       <c r="E27" t="n">
-        <v>1.028503885780242</v>
+        <v>1.013177913525609</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9579825463295115</v>
+        <v>0.9811159133499925</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9922110854366731</v>
+        <v>1.002253257092589</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9840429313223179</v>
+        <v>0.9768581699556304</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9869224867753211</v>
+        <v>1.031716826069373</v>
       </c>
       <c r="J27" t="n">
-        <v>1.004860239158525</v>
+        <v>1.01574054526376</v>
       </c>
       <c r="K27" t="n">
-        <v>1.000763726056722</v>
+        <v>1.031628346988522</v>
       </c>
       <c r="L27" t="n">
-        <v>0.975745246050031</v>
+        <v>0.9322489453302958</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9878406326671316</v>
+        <v>0.8995057469088263</v>
       </c>
       <c r="N27" t="n">
-        <v>1.017082684739192</v>
+        <v>0.9704142011834321</v>
       </c>
       <c r="O27" t="n">
-        <v>1.013713653189687</v>
+        <v>0.9103468357965439</v>
       </c>
       <c r="P27" t="n">
-        <v>1.228527646060451</v>
+        <v>1.082666651407878</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.28806386104177</v>
+        <v>1.199033633412325</v>
       </c>
       <c r="R27" t="n">
-        <v>1.03472564658108</v>
+        <v>1.051724162945224</v>
       </c>
       <c r="S27" t="n">
-        <v>0.726558113419427</v>
+        <v>0.7210218888999771</v>
       </c>
       <c r="T27" t="n">
-        <v>1.230339699422438</v>
+        <v>1.166141780342642</v>
       </c>
       <c r="U27" t="n">
-        <v>0.9665775409023851</v>
+        <v>1.020712109945662</v>
       </c>
       <c r="V27" t="n">
-        <v>0.9863655035910474</v>
+        <v>0.9505055742489471</v>
       </c>
       <c r="W27" t="n">
-        <v>1.018598690346424</v>
+        <v>1.001639879854352</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44400</v>
+        <v>44420</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9911988854240127</v>
+        <v>1.009515296530437</v>
       </c>
       <c r="C28" t="n">
-        <v>1.008986083738699</v>
+        <v>1.037163875458395</v>
       </c>
       <c r="D28" t="n">
-        <v>1.040953459965463</v>
+        <v>1.005634845419563</v>
       </c>
       <c r="E28" t="n">
-        <v>1.038938522606655</v>
+        <v>1.017378934448083</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9624120513672016</v>
+        <v>0.9834561889767488</v>
       </c>
       <c r="G28" t="n">
-        <v>1.002107909002485</v>
+        <v>1.009309389131946</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9692044385134163</v>
+        <v>0.9678124891016866</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9978560984492024</v>
+        <v>1.039835466709106</v>
       </c>
       <c r="J28" t="n">
-        <v>1.008501423263006</v>
+        <v>1.018015484449595</v>
       </c>
       <c r="K28" t="n">
-        <v>1.011913864286331</v>
+        <v>1.033141698862316</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9779132138833472</v>
+        <v>0.9300981719195206</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9790356397483133</v>
+        <v>0.8855024461274182</v>
       </c>
       <c r="N28" t="n">
-        <v>1.013894722156955</v>
+        <v>0.9706508478469399</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9861870274511885</v>
+        <v>0.9090130001365819</v>
       </c>
       <c r="P28" t="n">
-        <v>1.245398759097113</v>
+        <v>1.049333318074544</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.263392827132465</v>
+        <v>1.208007388540354</v>
       </c>
       <c r="R28" t="n">
-        <v>1.007045766670126</v>
+        <v>1.071501008950707</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7119595732734416</v>
+        <v>0.7305109399948676</v>
       </c>
       <c r="T28" t="n">
-        <v>1.232666363052968</v>
+        <v>1.172834621639701</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9701425998062224</v>
+        <v>1.020013976865731</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9905093021301524</v>
+        <v>0.9487758659402973</v>
       </c>
       <c r="W28" t="n">
-        <v>1.022937080754075</v>
+        <v>1.010693614986081</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44402</v>
+        <v>44421</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9910437235543018</v>
+        <v>1.013094043035825</v>
       </c>
       <c r="C29" t="n">
-        <v>1.010083960883417</v>
+        <v>1.038985128086096</v>
       </c>
       <c r="D29" t="n">
-        <v>1.041083946747963</v>
+        <v>1.006085569421505</v>
       </c>
       <c r="E29" t="n">
-        <v>1.040176002209572</v>
+        <v>1.0190141743809</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9639952782854406</v>
+        <v>0.9742705563196699</v>
       </c>
       <c r="G29" t="n">
-        <v>1.000499169289869</v>
+        <v>1.011838165254768</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9600701456023693</v>
+        <v>0.9650988032489883</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9979633139721129</v>
+        <v>1.041026207276567</v>
       </c>
       <c r="J29" t="n">
-        <v>1.008111385574678</v>
+        <v>1.014330699006233</v>
       </c>
       <c r="K29" t="n">
-        <v>1.011302905290832</v>
+        <v>1.03556297526768</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9768292299666891</v>
+        <v>0.9213604177696079</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9792452881491915</v>
+        <v>0.9048599131810745</v>
       </c>
       <c r="N29" t="n">
-        <v>1.012691732994596</v>
+        <v>0.9845562094062039</v>
       </c>
       <c r="O29" t="n">
-        <v>0.989516083481333</v>
+        <v>0.9147294490633604</v>
       </c>
       <c r="P29" t="n">
-        <v>1.251533722589451</v>
+        <v>1.029333305358886</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.318843967503729</v>
+        <v>1.17763463836476</v>
       </c>
       <c r="R29" t="n">
-        <v>1.012833374433639</v>
+        <v>1.070993994656521</v>
       </c>
       <c r="S29" t="n">
-        <v>0.7063447501403703</v>
+        <v>0.7229197258496806</v>
       </c>
       <c r="T29" t="n">
-        <v>1.232433682489087</v>
+        <v>1.178346408633734</v>
       </c>
       <c r="U29" t="n">
-        <v>0.9772727176138969</v>
+        <v>1.025831989267358</v>
       </c>
       <c r="V29" t="n">
-        <v>0.9931827517955238</v>
+        <v>0.9391962865680028</v>
       </c>
       <c r="W29" t="n">
-        <v>1.020542105817521</v>
+        <v>1.009615790590836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44403</v>
+        <v>44423</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9908885616845909</v>
+        <v>1.008553933273619</v>
       </c>
       <c r="C30" t="n">
-        <v>1.011181838028136</v>
+        <v>1.037329792852347</v>
       </c>
       <c r="D30" t="n">
-        <v>1.041214433530464</v>
+        <v>1.005096627934892</v>
       </c>
       <c r="E30" t="n">
-        <v>1.041413481812489</v>
+        <v>1.019577499169797</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9655785052036797</v>
+        <v>0.9712838775841013</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9988904295772532</v>
+        <v>1.010200790600465</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9509358526913222</v>
+        <v>0.9613674506949941</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9980705294950232</v>
+        <v>1.0369668869567</v>
       </c>
       <c r="J30" t="n">
-        <v>1.00772134788635</v>
+        <v>1.011879504592267</v>
       </c>
       <c r="K30" t="n">
-        <v>1.010691946295332</v>
+        <v>1.03299034202676</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9757452460500311</v>
+        <v>0.9136308739107936</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9794549365500695</v>
+        <v>0.9075370355953819</v>
       </c>
       <c r="N30" t="n">
-        <v>1.011488743832237</v>
+        <v>0.9870118361253005</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9928451395114775</v>
+        <v>0.9128716013449427</v>
       </c>
       <c r="P30" t="n">
-        <v>1.257668686081789</v>
+        <v>1.040666643778483</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.374295107874993</v>
+        <v>1.180395773533022</v>
       </c>
       <c r="R30" t="n">
-        <v>1.018620982197152</v>
+        <v>1.06871204344654</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7007299270072991</v>
+        <v>0.7051824862069456</v>
       </c>
       <c r="T30" t="n">
-        <v>1.232201001925206</v>
+        <v>1.186811011607252</v>
       </c>
       <c r="U30" t="n">
-        <v>0.9844028354215714</v>
+        <v>1.028857336185524</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9958562014608953</v>
+        <v>0.9320116527931337</v>
       </c>
       <c r="W30" t="n">
-        <v>1.018058095737636</v>
+        <v>1.006765568785006</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44404</v>
+        <v>44424</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9867560081320521</v>
+        <v>1.004013823511414</v>
       </c>
       <c r="C31" t="n">
-        <v>1.008703874584426</v>
+        <v>1.035674457618599</v>
       </c>
       <c r="D31" t="n">
-        <v>1.028576639625173</v>
+        <v>1.00410768644828</v>
       </c>
       <c r="E31" t="n">
-        <v>1.036505878258087</v>
+        <v>1.020140823958693</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9546506346997108</v>
+        <v>0.9682971988485327</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9925046225855479</v>
+        <v>1.008563415946163</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9312505011928046</v>
+        <v>0.9576360981409999</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9898166516420455</v>
+        <v>1.032907566636834</v>
       </c>
       <c r="J31" t="n">
-        <v>1.007331310198022</v>
+        <v>1.009428310178301</v>
       </c>
       <c r="K31" t="n">
-        <v>1.005804201498407</v>
+        <v>1.030417708785841</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9722221820191512</v>
+        <v>0.9059013300519794</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9626833843705699</v>
+        <v>0.9102141580096893</v>
       </c>
       <c r="N31" t="n">
-        <v>1.013172947015977</v>
+        <v>0.9894674628443972</v>
       </c>
       <c r="O31" t="n">
-        <v>0.977939047481856</v>
+        <v>0.9110137536265249</v>
       </c>
       <c r="P31" t="n">
-        <v>1.21809814961585</v>
+        <v>1.051999982198079</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.356437915400666</v>
+        <v>1.183156908701284</v>
       </c>
       <c r="R31" t="n">
-        <v>1.019124264958071</v>
+        <v>1.066430092236558</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6535654126895001</v>
+        <v>0.6874452465642107</v>
       </c>
       <c r="T31" t="n">
-        <v>1.235458387811259</v>
+        <v>1.195275614580769</v>
       </c>
       <c r="U31" t="n">
-        <v>0.9893048232884885</v>
+        <v>1.031882683103688</v>
       </c>
       <c r="V31" t="n">
-        <v>0.9955889023869882</v>
+        <v>0.9248270190182646</v>
       </c>
       <c r="W31" t="n">
-        <v>1.00375551498779</v>
+        <v>1.003704691071787</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44405</v>
+        <v>44425</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9896474044649153</v>
+        <v>1.00781713252251</v>
       </c>
       <c r="C32" t="n">
-        <v>1.014413851931049</v>
+        <v>1.034835913668702</v>
       </c>
       <c r="D32" t="n">
-        <v>1.035732892425723</v>
+        <v>0.9947696130892365</v>
       </c>
       <c r="E32" t="n">
-        <v>1.036312816721821</v>
+        <v>1.014471049326472</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9690803407111986</v>
+        <v>0.9541374239207134</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9957809968046922</v>
+        <v>1.008324014337626</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9572739334867426</v>
+        <v>0.9399970020723247</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9965698393002056</v>
+        <v>1.029443616600698</v>
       </c>
       <c r="J32" t="n">
-        <v>1.016053671583072</v>
+        <v>1.008410967935042</v>
       </c>
       <c r="K32" t="n">
-        <v>1.01221932557585</v>
+        <v>1.031174384722738</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9822492529293049</v>
+        <v>0.8964915040809417</v>
       </c>
       <c r="M32" t="n">
-        <v>0.971488457262076</v>
+        <v>0.9019768945301434</v>
       </c>
       <c r="N32" t="n">
-        <v>1.018285673901551</v>
+        <v>0.9879881729035689</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9926463491606187</v>
+        <v>0.8862423537961656</v>
       </c>
       <c r="P32" t="n">
-        <v>1.216257645941242</v>
+        <v>1.022666676839193</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.334351482215096</v>
+        <v>1.160377389957041</v>
       </c>
       <c r="R32" t="n">
-        <v>1.019124264958071</v>
+        <v>1.056288065365188</v>
       </c>
       <c r="S32" t="n">
-        <v>0.682987099614858</v>
+        <v>0.6659854192803375</v>
       </c>
       <c r="T32" t="n">
-        <v>1.236854329186265</v>
+        <v>1.181496087021714</v>
       </c>
       <c r="U32" t="n">
-        <v>0.9839571924338781</v>
+        <v>1.03095177981323</v>
       </c>
       <c r="V32" t="n">
-        <v>0.999064300265892</v>
+        <v>0.9184405989338338</v>
       </c>
       <c r="W32" t="n">
-        <v>1.022571445161633</v>
+        <v>0.9920854364356383</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44406</v>
+        <v>44426</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9983638790329687</v>
+        <v>1.006161044003904</v>
       </c>
       <c r="C33" t="n">
-        <v>1.016353921454225</v>
+        <v>1.041077222732202</v>
       </c>
       <c r="D33" t="n">
-        <v>1.036832968970661</v>
+        <v>0.9859277338299776</v>
       </c>
       <c r="E33" t="n">
-        <v>1.040671706964095</v>
+        <v>1.003567036930542</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9756441024132702</v>
+        <v>0.9460781151114315</v>
       </c>
       <c r="G33" t="n">
-        <v>1.0002647455264</v>
+        <v>1.011111735057437</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9620460626793883</v>
+        <v>0.9405246299818352</v>
       </c>
       <c r="I33" t="n">
-        <v>1.005895545256359</v>
+        <v>1.029768349012354</v>
       </c>
       <c r="J33" t="n">
-        <v>1.020553937417978</v>
+        <v>1.014402765637652</v>
       </c>
       <c r="K33" t="n">
-        <v>1.017259801017534</v>
+        <v>1.032385022925419</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9989159643936791</v>
+        <v>0.8813012245798809</v>
       </c>
       <c r="M33" t="n">
-        <v>0.9945492215498565</v>
+        <v>0.8962108572282813</v>
       </c>
       <c r="N33" t="n">
-        <v>1.029593973948543</v>
+        <v>0.9887574325651814</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9887707712982214</v>
+        <v>0.8881478852308197</v>
       </c>
       <c r="P33" t="n">
-        <v>1.245398759097113</v>
+        <v>1.026666641235351</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.299107122450076</v>
+        <v>1.146111422516966</v>
       </c>
       <c r="R33" t="n">
-        <v>1.029189728193712</v>
+        <v>1.056288065365188</v>
       </c>
       <c r="S33" t="n">
-        <v>0.6983717287075377</v>
+        <v>0.6832116788321166</v>
       </c>
       <c r="T33" t="n">
-        <v>1.231735782805722</v>
+        <v>1.18228341650775</v>
       </c>
       <c r="U33" t="n">
-        <v>0.9770498536211959</v>
+        <v>1.029555513653367</v>
       </c>
       <c r="V33" t="n">
-        <v>1.016575398123665</v>
+        <v>0.9077967008047203</v>
       </c>
       <c r="W33" t="n">
-        <v>1.026024726882242</v>
+        <v>0.9788085233572602</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44407</v>
+        <v>44427</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9918617496033143</v>
+        <v>0.9906671904859509</v>
       </c>
       <c r="C34" t="n">
-        <v>1.011869749753594</v>
+        <v>1.031053594218603</v>
       </c>
       <c r="D34" t="n">
-        <v>1.029425540247481</v>
+        <v>0.9870055607410904</v>
       </c>
       <c r="E34" t="n">
-        <v>1.035045785710434</v>
+        <v>1.004828211831057</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9696422166623018</v>
+        <v>0.9345258863501041</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9941200761797604</v>
+        <v>0.9984357569401415</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9527253556272995</v>
+        <v>0.9250715918563478</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9986065253280927</v>
+        <v>1.010500121774655</v>
       </c>
       <c r="J34" t="n">
-        <v>1.023695913234043</v>
+        <v>1.009916935629048</v>
       </c>
       <c r="K34" t="n">
-        <v>1.012372056220609</v>
+        <v>1.017251864990425</v>
       </c>
       <c r="L34" t="n">
-        <v>1.003387533735258</v>
+        <v>0.8583142760854222</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9907756303067379</v>
+        <v>0.8859143171570323</v>
       </c>
       <c r="N34" t="n">
-        <v>1.021473728265977</v>
+        <v>0.9858579917772284</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9739640744440294</v>
+        <v>0.8654725336342838</v>
       </c>
       <c r="P34" t="n">
-        <v>1.200920237210397</v>
+        <v>1.021333312988281</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.183975511365262</v>
+        <v>1.150023023357428</v>
       </c>
       <c r="R34" t="n">
-        <v>1.012581781048865</v>
+        <v>1.037525344669613</v>
       </c>
       <c r="S34" t="n">
-        <v>0.6975856397608434</v>
+        <v>0.6630657112511403</v>
       </c>
       <c r="T34" t="n">
-        <v>1.23592374893902</v>
+        <v>1.135826771653542</v>
       </c>
       <c r="U34" t="n">
-        <v>0.9770498536211959</v>
+        <v>1.025133767411603</v>
       </c>
       <c r="V34" t="n">
-        <v>1.020318197060098</v>
+        <v>0.8841138066860128</v>
       </c>
       <c r="W34" t="n">
-        <v>1.017876588983236</v>
+        <v>0.9777272869619593</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44409</v>
+        <v>44428</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9953455571227078</v>
+        <v>0.9947371374920777</v>
       </c>
       <c r="C35" t="n">
-        <v>1.017599534273083</v>
+        <v>1.037342929756547</v>
       </c>
       <c r="D35" t="n">
-        <v>1.029719880608533</v>
+        <v>0.9987389007557441</v>
       </c>
       <c r="E35" t="n">
-        <v>1.034092091617646</v>
+        <v>1.013009088700074</v>
       </c>
       <c r="F35" t="n">
-        <v>0.967301137756267</v>
+        <v>0.9499434805193694</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9948984180346229</v>
+        <v>1.001110177802851</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9561926768551824</v>
+        <v>0.9240163360373269</v>
       </c>
       <c r="I35" t="n">
-        <v>1.000535954942329</v>
+        <v>1.014721808300349</v>
       </c>
       <c r="J35" t="n">
-        <v>1.026355161227396</v>
+        <v>1.010253409548604</v>
       </c>
       <c r="K35" t="n">
-        <v>1.015808750642933</v>
+        <v>1.02103517251432</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9851625856988764</v>
+        <v>0.8583142760854222</v>
       </c>
       <c r="M35" t="n">
-        <v>0.9886792262706443</v>
+        <v>0.8793245377959422</v>
       </c>
       <c r="N35" t="n">
-        <v>1.020842129126527</v>
+        <v>0.9863905144866404</v>
       </c>
       <c r="O35" t="n">
-        <v>0.9761006158179347</v>
+        <v>0.8848132960809149</v>
       </c>
       <c r="P35" t="n">
-        <v>1.203987718956566</v>
+        <v>1.026666641235351</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.162006539660078</v>
+        <v>1.140819210204921</v>
       </c>
       <c r="R35" t="n">
-        <v>1.024911920717271</v>
+        <v>1.012170374212722</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7056709645103696</v>
+        <v>0.6929927185504103</v>
       </c>
       <c r="T35" t="n">
-        <v>1.268729720330317</v>
+        <v>1.153543307086613</v>
       </c>
       <c r="U35" t="n">
-        <v>0.9763814316385104</v>
+        <v>1.03141723145846</v>
       </c>
       <c r="V35" t="n">
-        <v>0.99732660132644</v>
+        <v>0.8672165663828347</v>
       </c>
       <c r="W35" t="n">
-        <v>1.014190806986735</v>
+        <v>0.9943517111661343</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44410</v>
+        <v>44430</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9988293646421014</v>
+        <v>0.9962177629969922</v>
       </c>
       <c r="C36" t="n">
-        <v>1.023329318792572</v>
+        <v>1.037115806331664</v>
       </c>
       <c r="D36" t="n">
-        <v>1.030014220969585</v>
+        <v>1.00647617479554</v>
       </c>
       <c r="E36" t="n">
-        <v>1.033138397524858</v>
+        <v>1.017326427254653</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9649600588502322</v>
+        <v>0.9588617891398074</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9956767598894855</v>
+        <v>1.002527168155417</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9596599980830652</v>
+        <v>0.931026729497391</v>
       </c>
       <c r="I36" t="n">
-        <v>1.002465384556565</v>
+        <v>1.019917733354553</v>
       </c>
       <c r="J36" t="n">
-        <v>1.02901440922075</v>
+        <v>1.012175887170057</v>
       </c>
       <c r="K36" t="n">
-        <v>1.019245445065256</v>
+        <v>1.024364445611842</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9669376376624943</v>
+        <v>0.8810324163633131</v>
       </c>
       <c r="M36" t="n">
-        <v>0.9865828222345507</v>
+        <v>0.890238845133429</v>
       </c>
       <c r="N36" t="n">
-        <v>1.020210529987077</v>
+        <v>0.9923964280348561</v>
       </c>
       <c r="O36" t="n">
-        <v>0.97823715719184</v>
+        <v>0.8932450636995574</v>
       </c>
       <c r="P36" t="n">
-        <v>1.207055200702735</v>
+        <v>1.039333311716715</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.140037567954896</v>
+        <v>1.145075985857005</v>
       </c>
       <c r="R36" t="n">
-        <v>1.037242060385676</v>
+        <v>1.012170374212722</v>
       </c>
       <c r="S36" t="n">
-        <v>0.7137562892598958</v>
+        <v>0.7105839416058392</v>
       </c>
       <c r="T36" t="n">
-        <v>1.301535691721613</v>
+        <v>1.160826795683131</v>
       </c>
       <c r="U36" t="n">
-        <v>0.975713009655825</v>
+        <v>1.040493316600867</v>
       </c>
       <c r="V36" t="n">
-        <v>0.9743350055927821</v>
+        <v>0.8909658979480217</v>
       </c>
       <c r="W36" t="n">
-        <v>1.01038051312211</v>
+        <v>1.006672909483177</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44411</v>
+        <v>44431</v>
       </c>
       <c r="B37" t="n">
-        <v>1.002214414007405</v>
+        <v>0.9976983885019066</v>
       </c>
       <c r="C37" t="n">
-        <v>1.026900810414784</v>
+        <v>1.036888682906781</v>
       </c>
       <c r="D37" t="n">
-        <v>1.035642384134999</v>
+        <v>1.014213448835335</v>
       </c>
       <c r="E37" t="n">
-        <v>1.041613672482316</v>
+        <v>1.021643765809232</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9684793333539625</v>
+        <v>0.9677800977602452</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9948037679177889</v>
+        <v>1.003944158507984</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9639848425642463</v>
+        <v>0.9380371229574549</v>
       </c>
       <c r="I37" t="n">
-        <v>1.003858941009953</v>
+        <v>1.025113658408757</v>
       </c>
       <c r="J37" t="n">
-        <v>1.029898061827315</v>
+        <v>1.01409836479151</v>
       </c>
       <c r="K37" t="n">
-        <v>1.021689353880181</v>
+        <v>1.027693718709364</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9574525845555011</v>
+        <v>0.903750556641204</v>
       </c>
       <c r="M37" t="n">
-        <v>0.9928721143155191</v>
+        <v>0.9011531524709158</v>
       </c>
       <c r="N37" t="n">
-        <v>1.0194887548461</v>
+        <v>0.9984023415830717</v>
       </c>
       <c r="O37" t="n">
-        <v>0.9739640744440297</v>
+        <v>0.9016768313181999</v>
       </c>
       <c r="P37" t="n">
-        <v>1.234662609552789</v>
+        <v>1.051999982198079</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.159774413008548</v>
+        <v>1.149332761509089</v>
       </c>
       <c r="R37" t="n">
-        <v>1.030699480485098</v>
+        <v>1.012170374212722</v>
       </c>
       <c r="S37" t="n">
-        <v>0.6810780460415493</v>
+        <v>0.728175164661268</v>
       </c>
       <c r="T37" t="n">
-        <v>1.303862355352142</v>
+        <v>1.168110284279649</v>
       </c>
       <c r="U37" t="n">
-        <v>0.983734413438886</v>
+        <v>1.049569401743274</v>
       </c>
       <c r="V37" t="n">
-        <v>0.9679188079827887</v>
+        <v>0.9147152295132087</v>
       </c>
       <c r="W37" t="n">
-        <v>1.029232681543882</v>
+        <v>1.01887680292793</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44412</v>
+        <v>44432</v>
       </c>
       <c r="B38" t="n">
-        <v>1.004781368454689</v>
+        <v>1.000056123494714</v>
       </c>
       <c r="C38" t="n">
-        <v>1.029458174786244</v>
+        <v>1.04324353235658</v>
       </c>
       <c r="D38" t="n">
-        <v>1.036992266302934</v>
+        <v>1.019449867493771</v>
       </c>
       <c r="E38" t="n">
-        <v>1.036788513907963</v>
+        <v>1.023171875476769</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9566062479882683</v>
+        <v>0.977688794591677</v>
       </c>
       <c r="G38" t="n">
-        <v>1.003568599819056</v>
+        <v>1.007304377468616</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9691298000389755</v>
+        <v>0.9598221560841876</v>
       </c>
       <c r="I38" t="n">
-        <v>1.009647352524884</v>
+        <v>1.026412670642464</v>
       </c>
       <c r="J38" t="n">
-        <v>1.030053577494595</v>
+        <v>1.019233087834165</v>
       </c>
       <c r="K38" t="n">
-        <v>1.027951747312866</v>
+        <v>1.027693718709364</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9247967097255342</v>
+        <v>0.9292915421509951</v>
       </c>
       <c r="M38" t="n">
-        <v>0.9870021190363069</v>
+        <v>0.9093904159504616</v>
       </c>
       <c r="N38" t="n">
-        <v>1.019729315965696</v>
+        <v>0.9979289579673635</v>
       </c>
       <c r="O38" t="n">
-        <v>0.9494186974379777</v>
+        <v>0.8989138652543954</v>
       </c>
       <c r="P38" t="n">
-        <v>1.276073576558802</v>
+        <v>1.038666661580403</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.150140958258018</v>
+        <v>1.18775885916499</v>
       </c>
       <c r="R38" t="n">
-        <v>1.022647148293134</v>
+        <v>1.027890525535501</v>
       </c>
       <c r="S38" t="n">
-        <v>0.6339135317237504</v>
+        <v>0.7008759213190007</v>
       </c>
       <c r="T38" t="n">
-        <v>1.313169009874261</v>
+        <v>1.173228346456692</v>
       </c>
       <c r="U38" t="n">
-        <v>0.9801693545350487</v>
+        <v>1.053991147985038</v>
       </c>
       <c r="V38" t="n">
-        <v>0.9407833117264035</v>
+        <v>0.9453166523404047</v>
       </c>
       <c r="W38" t="n">
-        <v>1.046836378243073</v>
+        <v>1.025257494598529</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44413</v>
+        <v>44433</v>
       </c>
       <c r="B39" t="n">
-        <v>1.004287715422249</v>
+        <v>1.003466499515961</v>
       </c>
       <c r="C39" t="n">
-        <v>1.036442442293309</v>
+        <v>1.047628613917561</v>
       </c>
       <c r="D39" t="n">
-        <v>1.045031814246566</v>
+        <v>1.020947199141397</v>
       </c>
       <c r="E39" t="n">
-        <v>1.043014892185079</v>
+        <v>1.025443438003983</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9738931846595107</v>
+        <v>0.9813525836597984</v>
       </c>
       <c r="G39" t="n">
-        <v>1.006928725807699</v>
+        <v>1.004442566558409</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9671911111766469</v>
+        <v>0.9611789530018248</v>
       </c>
       <c r="I39" t="n">
-        <v>1.013399078011928</v>
+        <v>1.028361147699483</v>
       </c>
       <c r="J39" t="n">
-        <v>1.027778873701001</v>
+        <v>1.025168855442062</v>
       </c>
       <c r="K39" t="n">
-        <v>1.031617574118791</v>
+        <v>1.027542397954103</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9375338696514899</v>
+        <v>0.9403145250996724</v>
       </c>
       <c r="M39" t="n">
-        <v>0.9769391557395319</v>
+        <v>0.9098022869800755</v>
       </c>
       <c r="N39" t="n">
-        <v>1.015699251791589</v>
+        <v>0.9910058918789296</v>
       </c>
       <c r="O39" t="n">
-        <v>0.9344132102329268</v>
+        <v>0.8879572957430584</v>
       </c>
       <c r="P39" t="n">
-        <v>1.269938613066464</v>
+        <v>1.038666661580403</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.16306387224565</v>
+        <v>1.184031322299091</v>
       </c>
       <c r="R39" t="n">
-        <v>1.030699480485098</v>
+        <v>1.045131913183909</v>
       </c>
       <c r="S39" t="n">
-        <v>0.5871982306727258</v>
+        <v>0.7169343154795845</v>
       </c>
       <c r="T39" t="n">
-        <v>1.317822337135321</v>
+        <v>1.17244089682271</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9861853223746355</v>
+        <v>1.049569401743274</v>
       </c>
       <c r="V39" t="n">
-        <v>0.9529475102534336</v>
+        <v>0.9612825502884266</v>
       </c>
       <c r="W39" t="n">
-        <v>1.059754649395104</v>
+        <v>1.03065782591937</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44414</v>
+        <v>44434</v>
       </c>
       <c r="B40" t="n">
-        <v>1.004654442877292</v>
+        <v>0.999943876505287</v>
       </c>
       <c r="C40" t="n">
-        <v>1.034242209860441</v>
+        <v>1.046143631915547</v>
       </c>
       <c r="D40" t="n">
-        <v>1.040867131088617</v>
+        <v>1.014427874150965</v>
       </c>
       <c r="E40" t="n">
-        <v>1.044762219823615</v>
+        <v>1.019470313223506</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9790108920354936</v>
+        <v>0.9702693087718343</v>
       </c>
       <c r="G40" t="n">
-        <v>1.008001885133043</v>
+        <v>1.000196976007023</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9588397940669873</v>
+        <v>0.9511533785991582</v>
       </c>
       <c r="I40" t="n">
-        <v>1.015542897781244</v>
+        <v>1.025654934152906</v>
       </c>
       <c r="J40" t="n">
-        <v>1.032303710412048</v>
+        <v>1.024952557764045</v>
       </c>
       <c r="K40" t="n">
-        <v>1.031464770641106</v>
+        <v>1.024364445611842</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9265581900513115</v>
+        <v>0.9276784877327663</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9442348049294206</v>
+        <v>0.8999176179384404</v>
       </c>
       <c r="N40" t="n">
-        <v>0.9903157858023969</v>
+        <v>0.99213016668015</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9097685138677499</v>
+        <v>0.8697599248458115</v>
       </c>
       <c r="P40" t="n">
-        <v>1.269938613066464</v>
+        <v>1.115733337402343</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.164473678903426</v>
+        <v>1.18591813164445</v>
       </c>
       <c r="R40" t="n">
-        <v>1.042777978773044</v>
+        <v>1.039046677716779</v>
       </c>
       <c r="S40" t="n">
-        <v>0.619427260624298</v>
+        <v>0.7227737315379787</v>
       </c>
       <c r="T40" t="n">
-        <v>1.337831587554565</v>
+        <v>1.173228346456692</v>
       </c>
       <c r="U40" t="n">
-        <v>0.9725935937396809</v>
+        <v>1.035140755844468</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9450608107942732</v>
+        <v>0.9455827066524336</v>
       </c>
       <c r="W40" t="n">
-        <v>1.044078259469906</v>
+        <v>1.023905059471828</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44416</v>
+        <v>44435</v>
       </c>
       <c r="B41" t="n">
-        <v>1.005310282418018</v>
+        <v>1.003171765510146</v>
       </c>
       <c r="C41" t="n">
-        <v>1.034180506211055</v>
+        <v>1.050830009227397</v>
       </c>
       <c r="D41" t="n">
-        <v>1.041723773903849</v>
+        <v>1.026895629157017</v>
       </c>
       <c r="E41" t="n">
-        <v>1.044271229496124</v>
+        <v>1.028449433067082</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9761907192426883</v>
+        <v>0.9979533153904715</v>
       </c>
       <c r="G41" t="n">
-        <v>1.007488975806419</v>
+        <v>1.003878293689309</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9605547950623187</v>
+        <v>0.9632896486747147</v>
       </c>
       <c r="I41" t="n">
-        <v>1.016293242878653</v>
+        <v>1.030742628834405</v>
       </c>
       <c r="J41" t="n">
-        <v>1.033326498101799</v>
+        <v>1.026322312679806</v>
       </c>
       <c r="K41" t="n">
-        <v>1.032304862020208</v>
+        <v>1.028904356912046</v>
       </c>
       <c r="L41" t="n">
-        <v>0.914363099618179</v>
+        <v>0.9454228042491595</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9280922379388992</v>
+        <v>0.9196869560217106</v>
       </c>
       <c r="N41" t="n">
-        <v>0.9815338364221102</v>
+        <v>1.007041434564534</v>
       </c>
       <c r="O41" t="n">
-        <v>0.9090232016846385</v>
+        <v>0.8986280537113455</v>
       </c>
       <c r="P41" t="n">
-        <v>1.257668686081789</v>
+        <v>1.170666631062825</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.171874962186905</v>
+        <v>1.213529746651782</v>
       </c>
       <c r="R41" t="n">
-        <v>1.042023102627351</v>
+        <v>1.04310346912102</v>
       </c>
       <c r="S41" t="n">
-        <v>0.6073553908881947</v>
+        <v>0.7083211857036951</v>
       </c>
       <c r="T41" t="n">
-        <v>1.342252234251743</v>
+        <v>1.172047292153665</v>
       </c>
       <c r="U41" t="n">
-        <v>0.9740418697014024</v>
+        <v>1.034908074409766</v>
       </c>
       <c r="V41" t="n">
-        <v>0.9339660635219271</v>
+        <v>0.967269736641759</v>
       </c>
       <c r="W41" t="n">
-        <v>1.049259273330224</v>
+        <v>1.038477582751855</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44417</v>
+        <v>44437</v>
       </c>
       <c r="B42" t="n">
-        <v>1.005966121958744</v>
+        <v>1.001847872345067</v>
       </c>
       <c r="C42" t="n">
-        <v>1.03411880256167</v>
+        <v>1.051448751728236</v>
       </c>
       <c r="D42" t="n">
-        <v>1.04258041671908</v>
+        <v>1.031524266383718</v>
       </c>
       <c r="E42" t="n">
-        <v>1.043780239168633</v>
+        <v>1.030663978238971</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9733705464498831</v>
+        <v>0.9955079183444636</v>
       </c>
       <c r="G42" t="n">
-        <v>1.006976066479794</v>
+        <v>1.005004272864152</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9622697960576501</v>
+        <v>0.9641564988179904</v>
       </c>
       <c r="I42" t="n">
-        <v>1.017043587976061</v>
+        <v>1.031500365323963</v>
       </c>
       <c r="J42" t="n">
-        <v>1.03434928579155</v>
+        <v>1.029462409983122</v>
       </c>
       <c r="K42" t="n">
-        <v>1.033144953399309</v>
+        <v>1.028904356912046</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9021680091850465</v>
+        <v>0.9485818392307388</v>
       </c>
       <c r="M42" t="n">
-        <v>0.9119496709483778</v>
+        <v>0.918245446696245</v>
       </c>
       <c r="N42" t="n">
-        <v>0.9727518870418235</v>
+        <v>1.004556238298586</v>
       </c>
       <c r="O42" t="n">
-        <v>0.9082778895015269</v>
+        <v>0.8980087832533049</v>
       </c>
       <c r="P42" t="n">
-        <v>1.245398759097113</v>
+        <v>1.159333292643229</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.179276245470384</v>
+        <v>1.237114644031508</v>
       </c>
       <c r="R42" t="n">
-        <v>1.041268226481658</v>
+        <v>1.036511170998937</v>
       </c>
       <c r="S42" t="n">
-        <v>0.5952835211520914</v>
+        <v>0.7070803008810446</v>
       </c>
       <c r="T42" t="n">
-        <v>1.346672880948921</v>
+        <v>1.173228346456692</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9754901456631239</v>
+        <v>1.029090062008138</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9228713162495811</v>
+        <v>0.9719930381270749</v>
       </c>
       <c r="W42" t="n">
-        <v>1.054205824012635</v>
+        <v>1.041960007058066</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44418</v>
+        <v>44438</v>
       </c>
       <c r="B43" t="n">
-        <v>1.010014104372355</v>
+        <v>1.000523979179988</v>
       </c>
       <c r="C43" t="n">
-        <v>1.039352546578074</v>
+        <v>1.052067494229076</v>
       </c>
       <c r="D43" t="n">
-        <v>1.037522640775676</v>
+        <v>1.036152903610418</v>
       </c>
       <c r="E43" t="n">
-        <v>1.044816378241471</v>
+        <v>1.032878523410859</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9753523182327578</v>
+        <v>0.9930625212984557</v>
       </c>
       <c r="G43" t="n">
-        <v>1.00859408071722</v>
+        <v>1.006130252038995</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9639848425642463</v>
+        <v>0.9650233489612662</v>
       </c>
       <c r="I43" t="n">
-        <v>1.01790114859638</v>
+        <v>1.032258101813522</v>
       </c>
       <c r="J43" t="n">
-        <v>1.035372073481302</v>
+        <v>1.032602507286438</v>
       </c>
       <c r="K43" t="n">
-        <v>1.036658049560475</v>
+        <v>1.028904356912046</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9266937203469329</v>
+        <v>0.9517408742123181</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9064989724709218</v>
+        <v>0.9168039373707795</v>
       </c>
       <c r="N43" t="n">
-        <v>0.9730526572779606</v>
+        <v>1.002071042032637</v>
       </c>
       <c r="O43" t="n">
-        <v>0.9235814864165615</v>
+        <v>0.8973895127952644</v>
       </c>
       <c r="P43" t="n">
-        <v>1.254601277470153</v>
+        <v>1.147999954223632</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.193608966115792</v>
+        <v>1.260699541411234</v>
       </c>
       <c r="R43" t="n">
-        <v>1.037242060385676</v>
+        <v>1.029918872876853</v>
       </c>
       <c r="S43" t="n">
-        <v>0.5672094397568955</v>
+        <v>0.7058394160583941</v>
       </c>
       <c r="T43" t="n">
-        <v>1.359702282484854</v>
+        <v>1.174409400759718</v>
       </c>
       <c r="U43" t="n">
-        <v>0.9832887704511927</v>
+        <v>1.023272049606511</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9441251110601649</v>
+        <v>0.9767163396123908</v>
       </c>
       <c r="W43" t="n">
-        <v>1.034967173538275</v>
+        <v>1.04540354608781</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44419</v>
+        <v>44439</v>
       </c>
       <c r="B44" t="n">
-        <v>1.018349802208215</v>
+        <v>0.9992000860149095</v>
       </c>
       <c r="C44" t="n">
-        <v>1.047496480997385</v>
+        <v>1.052686236729915</v>
       </c>
       <c r="D44" t="n">
-        <v>1.035912470192556</v>
+        <v>1.035701583062004</v>
       </c>
       <c r="E44" t="n">
-        <v>1.046149296245282</v>
+        <v>1.031485050428065</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9750778667131141</v>
+        <v>0.9964720930717765</v>
       </c>
       <c r="G44" t="n">
-        <v>1.01213582500989</v>
+        <v>1.002823219692504</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9662963597086585</v>
+        <v>0.9793456769800105</v>
       </c>
       <c r="I44" t="n">
-        <v>1.021652874083424</v>
+        <v>1.029660159933191</v>
       </c>
       <c r="J44" t="n">
-        <v>1.03753221306785</v>
+        <v>1.035742604589755</v>
       </c>
       <c r="K44" t="n">
-        <v>1.041240260234956</v>
+        <v>1.02618043899616</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9397018374848061</v>
+        <v>0.94219649029388</v>
       </c>
       <c r="M44" t="n">
-        <v>0.9157232621914964</v>
+        <v>0.9118615635717787</v>
       </c>
       <c r="N44" t="n">
-        <v>0.9864661654135338</v>
+        <v>1.004082854682877</v>
       </c>
       <c r="O44" t="n">
-        <v>0.9495180926134071</v>
+        <v>0.9029153722342815</v>
       </c>
       <c r="P44" t="n">
-        <v>1.245398759097113</v>
+        <v>1.166666666666666</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.224389072577751</v>
+        <v>1.236999527244365</v>
       </c>
       <c r="R44" t="n">
-        <v>1.043784544294882</v>
+        <v>1.014198818275611</v>
       </c>
       <c r="S44" t="n">
-        <v>0.5546322222307515</v>
+        <v>0.7048175004276915</v>
       </c>
       <c r="T44" t="n">
-        <v>1.378315591529092</v>
+        <v>1.217322882704846</v>
       </c>
       <c r="U44" t="n">
-        <v>0.9772727176138969</v>
+        <v>1.017454037204883</v>
       </c>
       <c r="V44" t="n">
-        <v>0.954952610250415</v>
+        <v>0.9711281839727499</v>
       </c>
       <c r="W44" t="n">
-        <v>1.030077651038304</v>
+        <v>1.039121030781486</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44420</v>
+        <v>44440</v>
       </c>
       <c r="B45" t="n">
-        <v>1.014555739818406</v>
+        <v>1.003424355499784</v>
       </c>
       <c r="C45" t="n">
-        <v>1.047055556105754</v>
+        <v>1.059176549841202</v>
       </c>
       <c r="D45" t="n">
-        <v>1.039499023935571</v>
+        <v>1.039104748125485</v>
       </c>
       <c r="E45" t="n">
-        <v>1.050487029058924</v>
+        <v>1.031806552585927</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9774037396651353</v>
+        <v>1.00229640816427</v>
       </c>
       <c r="G45" t="n">
-        <v>1.019261532980898</v>
+        <v>1.002139276941586</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9573484809386532</v>
+        <v>0.9920096669825014</v>
       </c>
       <c r="I45" t="n">
-        <v>1.029692320890581</v>
+        <v>1.03929427355204</v>
       </c>
       <c r="J45" t="n">
-        <v>1.039855958732114</v>
+        <v>1.044858495653561</v>
       </c>
       <c r="K45" t="n">
-        <v>1.0427677123484</v>
+        <v>1.030569029541102</v>
       </c>
       <c r="L45" t="n">
-        <v>0.93753386965149</v>
+        <v>0.9434063836669626</v>
       </c>
       <c r="M45" t="n">
-        <v>0.9014674908225342</v>
+        <v>0.9213344401401664</v>
       </c>
       <c r="N45" t="n">
-        <v>0.9867067265331296</v>
+        <v>1.004141993776581</v>
       </c>
       <c r="O45" t="n">
-        <v>0.9481268634226135</v>
+        <v>0.8911013680937939</v>
       </c>
       <c r="P45" t="n">
-        <v>1.207055200702735</v>
+        <v>1.23066660563151</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.23355259177569</v>
+        <v>1.24045101203587</v>
       </c>
       <c r="R45" t="n">
-        <v>1.063412092013873</v>
+        <v>0.9994928889842776</v>
       </c>
       <c r="S45" t="n">
-        <v>0.5619314923037442</v>
+        <v>0.6970802919708028</v>
       </c>
       <c r="T45" t="n">
-        <v>1.386226162667926</v>
+        <v>1.243307038554994</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9766042956312114</v>
+        <v>1.019548525220502</v>
       </c>
       <c r="V45" t="n">
-        <v>0.9532148093273408</v>
+        <v>0.952501235360922</v>
       </c>
       <c r="W45" t="n">
-        <v>1.039452197911894</v>
+        <v>1.046158990929786</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44421</v>
+        <v>44441</v>
       </c>
       <c r="B46" t="n">
-        <v>1.018152354769041</v>
+        <v>1.005403205508134</v>
       </c>
       <c r="C46" t="n">
-        <v>1.048894178456599</v>
+        <v>1.058106489280927</v>
       </c>
       <c r="D46" t="n">
-        <v>1.039964925810607</v>
+        <v>1.04058438222774</v>
       </c>
       <c r="E46" t="n">
-        <v>1.052175483852571</v>
+        <v>1.034739605524537</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9682746378191643</v>
+        <v>1.009729054222859</v>
       </c>
       <c r="G46" t="n">
-        <v>1.021815243721397</v>
+        <v>1.00317153017023</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9546641355121576</v>
+        <v>0.986883744358297</v>
       </c>
       <c r="I46" t="n">
-        <v>1.030871446298149</v>
+        <v>1.041675754686962</v>
       </c>
       <c r="J46" t="n">
-        <v>1.036092120010151</v>
+        <v>1.047501981832364</v>
       </c>
       <c r="K46" t="n">
-        <v>1.0452115483304</v>
+        <v>1.034049695554475</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9287262612639531</v>
+        <v>0.962226138168449</v>
       </c>
       <c r="M46" t="n">
-        <v>0.9211739606689522</v>
+        <v>0.9118615635717787</v>
       </c>
       <c r="N46" t="n">
-        <v>1.00084210159187</v>
+        <v>1.001479289940828</v>
       </c>
       <c r="O46" t="n">
-        <v>0.9540892850712013</v>
+        <v>0.8894817208907819</v>
       </c>
       <c r="P46" t="n">
-        <v>1.184049051039201</v>
+        <v>1.237333297729492</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.202537562352956</v>
+        <v>1.224804433124213</v>
       </c>
       <c r="R46" t="n">
-        <v>1.062908905244325</v>
+        <v>0.9989858746900919</v>
       </c>
       <c r="S46" t="n">
-        <v>0.5560920968074464</v>
+        <v>0.7545985757869524</v>
       </c>
       <c r="T46" t="n">
-        <v>1.392740792431753</v>
+        <v>1.276771605484128</v>
       </c>
       <c r="U46" t="n">
-        <v>0.982174705480814</v>
+        <v>1.017686718639586</v>
       </c>
       <c r="V46" t="n">
-        <v>0.9435904109287284</v>
+        <v>0.9716603941055112</v>
       </c>
       <c r="W46" t="n">
-        <v>1.038086297330258</v>
+        <v>1.05133815356112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44423</v>
+        <v>44442</v>
       </c>
       <c r="B47" t="n">
-        <v>1.013589576538258</v>
+        <v>1.001824459002747</v>
       </c>
       <c r="C47" t="n">
-        <v>1.047223055893688</v>
+        <v>1.056721910761011</v>
       </c>
       <c r="D47" t="n">
-        <v>1.038942682284793</v>
+        <v>1.042779408117194</v>
       </c>
       <c r="E47" t="n">
-        <v>1.053554281280425</v>
+        <v>1.034392935549676</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9653063398939051</v>
+        <v>1.004483254666134</v>
       </c>
       <c r="G47" t="n">
-        <v>1.020161723979899</v>
+        <v>0.9994104325667327</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9509731264172774</v>
+        <v>0.9923865703514156</v>
       </c>
       <c r="I47" t="n">
-        <v>1.026851722894571</v>
+        <v>1.033340570714736</v>
       </c>
       <c r="J47" t="n">
-        <v>1.033588337743272</v>
+        <v>1.049488556708763</v>
       </c>
       <c r="K47" t="n">
-        <v>1.042614945287178</v>
+        <v>1.028601715401523</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9209349233349263</v>
+        <v>0.9528162096380003</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9238993498940241</v>
+        <v>0.9423393127559119</v>
       </c>
       <c r="N47" t="n">
-        <v>1.003338347700305</v>
+        <v>1.012189334666235</v>
       </c>
       <c r="O47" t="n">
-        <v>0.9521514961400027</v>
+        <v>0.9103468357965445</v>
       </c>
       <c r="P47" t="n">
-        <v>1.197085866744052</v>
+        <v>1.256000010172525</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.205357086037466</v>
+        <v>1.231477256907841</v>
       </c>
       <c r="R47" t="n">
-        <v>1.060644180815875</v>
+        <v>0.9979716526586475</v>
       </c>
       <c r="S47" t="n">
-        <v>0.5424480663130349</v>
+        <v>0.7988321346088046</v>
       </c>
       <c r="T47" t="n">
-        <v>1.402745488645514</v>
+        <v>1.301181102362204</v>
       </c>
       <c r="U47" t="n">
-        <v>0.9850712999031114</v>
+        <v>0.9995345483547715</v>
       </c>
       <c r="V47" t="n">
-        <v>0.9363721631215802</v>
+        <v>0.9660723399745739</v>
       </c>
       <c r="W47" t="n">
-        <v>1.035025125724353</v>
+        <v>1.054359243054081</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44424</v>
+        <v>44444</v>
       </c>
       <c r="B48" t="n">
-        <v>1.009026798307475</v>
+        <v>1.005248848765959</v>
       </c>
       <c r="C48" t="n">
-        <v>1.045551933330778</v>
+        <v>1.057896810641167</v>
       </c>
       <c r="D48" t="n">
-        <v>1.037920438758979</v>
+        <v>1.043023992171189</v>
       </c>
       <c r="E48" t="n">
-        <v>1.05493307870828</v>
+        <v>1.033222149490449</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9623380419686459</v>
+        <v>1.002081671585707</v>
       </c>
       <c r="G48" t="n">
-        <v>1.018508204238402</v>
+        <v>1.004189249847336</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9472821173223973</v>
+        <v>0.9945474768653627</v>
       </c>
       <c r="I48" t="n">
-        <v>1.022831999490992</v>
+        <v>1.039348368091622</v>
       </c>
       <c r="J48" t="n">
-        <v>1.031084555476393</v>
+        <v>1.051054612523538</v>
       </c>
       <c r="K48" t="n">
-        <v>1.040018342243956</v>
+        <v>1.032233666089863</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9131435854058996</v>
+        <v>0.9486041971823649</v>
       </c>
       <c r="M48" t="n">
-        <v>0.926624739119096</v>
+        <v>0.9372597009846174</v>
       </c>
       <c r="N48" t="n">
-        <v>1.005834593808741</v>
+        <v>1.00558185765494</v>
       </c>
       <c r="O48" t="n">
-        <v>0.950213707208804</v>
+        <v>0.9025660793210389</v>
       </c>
       <c r="P48" t="n">
-        <v>1.210122682448904</v>
+        <v>1.243555577596028</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.208176609721975</v>
+        <v>1.230173360702719</v>
       </c>
       <c r="R48" t="n">
-        <v>1.058379456387424</v>
+        <v>0.9915483754215485</v>
       </c>
       <c r="S48" t="n">
-        <v>0.5288040358186235</v>
+        <v>0.7846228829265509</v>
       </c>
       <c r="T48" t="n">
-        <v>1.412750184859275</v>
+        <v>1.310498695673904</v>
       </c>
       <c r="U48" t="n">
-        <v>0.9879678943254087</v>
+        <v>1.000349066539966</v>
       </c>
       <c r="V48" t="n">
-        <v>0.9291539153144321</v>
+        <v>0.9619921637987748</v>
       </c>
       <c r="W48" t="n">
-        <v>1.031744203370788</v>
+        <v>1.055398927318445</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44425</v>
+        <v>44445</v>
       </c>
       <c r="B49" t="n">
-        <v>1.012849096989598</v>
+        <v>1.00867323852917</v>
       </c>
       <c r="C49" t="n">
-        <v>1.044705391986103</v>
+        <v>1.059071710521322</v>
       </c>
       <c r="D49" t="n">
-        <v>1.02826791111798</v>
+        <v>1.043268576225183</v>
       </c>
       <c r="E49" t="n">
-        <v>1.047484513969595</v>
+        <v>1.032051363431223</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9482654100381203</v>
+        <v>0.9996800885052808</v>
       </c>
       <c r="G49" t="n">
-        <v>1.018266442046211</v>
+        <v>1.008968067127939</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9298337355163812</v>
+        <v>0.99670838337931</v>
       </c>
       <c r="I49" t="n">
-        <v>1.019401838791198</v>
+        <v>1.045356165468507</v>
       </c>
       <c r="J49" t="n">
-        <v>1.030045387202548</v>
+        <v>1.052620668338313</v>
       </c>
       <c r="K49" t="n">
-        <v>1.040782068300679</v>
+        <v>1.035865616778203</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9036585322989062</v>
+        <v>0.9443921847267296</v>
       </c>
       <c r="M49" t="n">
-        <v>0.9182389630293462</v>
+        <v>0.932180089213323</v>
       </c>
       <c r="N49" t="n">
-        <v>1.004330834410244</v>
+        <v>0.9989743806436454</v>
       </c>
       <c r="O49" t="n">
-        <v>0.9243764203710831</v>
+        <v>0.8947853228455335</v>
       </c>
       <c r="P49" t="n">
-        <v>1.176380383241046</v>
+        <v>1.231111145019531</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.184915382470446</v>
+        <v>1.228869464497597</v>
       </c>
       <c r="R49" t="n">
-        <v>1.048313993151783</v>
+        <v>0.9851250981844495</v>
       </c>
       <c r="S49" t="n">
-        <v>0.5122964763694903</v>
+        <v>0.7704136312442973</v>
       </c>
       <c r="T49" t="n">
-        <v>1.396463539445567</v>
+        <v>1.319816288985604</v>
       </c>
       <c r="U49" t="n">
-        <v>0.9870766083500222</v>
+        <v>1.001163584725161</v>
       </c>
       <c r="V49" t="n">
-        <v>0.9227376157208165</v>
+        <v>0.957911987622976</v>
       </c>
       <c r="W49" t="n">
-        <v>1.019847253440633</v>
+        <v>1.056354794310599</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44426</v>
+        <v>44446</v>
       </c>
       <c r="B50" t="n">
-        <v>1.011184739730254</v>
+        <v>1.003368232005071</v>
       </c>
       <c r="C50" t="n">
-        <v>1.05100622591114</v>
+        <v>1.052480993927936</v>
       </c>
       <c r="D50" t="n">
-        <v>1.01912828662941</v>
+        <v>1.043513160279178</v>
       </c>
       <c r="E50" t="n">
-        <v>1.036225657314739</v>
+        <v>1.030880577371996</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9402557003453028</v>
+        <v>0.9972785054248541</v>
       </c>
       <c r="G50" t="n">
-        <v>1.02108165066806</v>
+        <v>1.003329853114651</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9303556587022862</v>
+        <v>0.9988692898932572</v>
       </c>
       <c r="I50" t="n">
-        <v>1.019723403578447</v>
+        <v>1.03951073429745</v>
       </c>
       <c r="J50" t="n">
-        <v>1.036165732756962</v>
+        <v>1.047405860395885</v>
       </c>
       <c r="K50" t="n">
-        <v>1.042003986291679</v>
+        <v>1.030569029541102</v>
       </c>
       <c r="L50" t="n">
-        <v>0.8883468136527701</v>
+        <v>0.9401801722710943</v>
       </c>
       <c r="M50" t="n">
-        <v>0.912368967750134</v>
+        <v>0.9271004774420285</v>
       </c>
       <c r="N50" t="n">
-        <v>1.005112818667763</v>
+        <v>0.9923669036323505</v>
       </c>
       <c r="O50" t="n">
-        <v>0.9263639447981489</v>
+        <v>0.8870045663700278</v>
       </c>
       <c r="P50" t="n">
-        <v>1.180981569293032</v>
+        <v>1.218666712443033</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.170347738864263</v>
+        <v>1.227565568292475</v>
       </c>
       <c r="R50" t="n">
-        <v>1.048313993151783</v>
+        <v>0.9787018209473505</v>
       </c>
       <c r="S50" t="n">
-        <v>0.5255474452554743</v>
+        <v>0.7562043795620437</v>
       </c>
       <c r="T50" t="n">
-        <v>1.397394119692812</v>
+        <v>1.329133882297304</v>
       </c>
       <c r="U50" t="n">
-        <v>0.9857397643846513</v>
+        <v>0.9962764756139919</v>
       </c>
       <c r="V50" t="n">
-        <v>0.9120439190429533</v>
+        <v>0.953831811447177</v>
       </c>
       <c r="W50" t="n">
-        <v>1.006137637747543</v>
+        <v>1.057227808996246</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44427</v>
+        <v>44447</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9956135264236599</v>
+        <v>0.9958037579990547</v>
       </c>
       <c r="C51" t="n">
-        <v>1.040886999648207</v>
+        <v>1.041623171997649</v>
       </c>
       <c r="D51" t="n">
-        <v>1.02024240874558</v>
+        <v>1.037561283550602</v>
       </c>
       <c r="E51" t="n">
-        <v>1.037527874049828</v>
+        <v>1.029521292529993</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9287745670529937</v>
+        <v>0.9859366264958407</v>
       </c>
       <c r="G51" t="n">
-        <v>1.008280682969762</v>
+        <v>0.9885862144501595</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9150696991368605</v>
+        <v>0.9836424305960881</v>
       </c>
       <c r="I51" t="n">
-        <v>1.000643129574499</v>
+        <v>1.029010612522795</v>
       </c>
       <c r="J51" t="n">
-        <v>1.031583663883198</v>
+        <v>1.041886651607316</v>
       </c>
       <c r="K51" t="n">
-        <v>1.026729829321866</v>
+        <v>1.019370499885265</v>
       </c>
       <c r="L51" t="n">
-        <v>0.8651760953091219</v>
+        <v>0.9529506650259898</v>
       </c>
       <c r="M51" t="n">
-        <v>0.9018867876242905</v>
+        <v>0.9130971766606205</v>
       </c>
       <c r="N51" t="n">
-        <v>1.002165417205122</v>
+        <v>0.9898816170777092</v>
       </c>
       <c r="O51" t="n">
-        <v>0.9027128969220479</v>
+        <v>0.8727134077087859</v>
       </c>
       <c r="P51" t="n">
-        <v>1.174846605800695</v>
+        <v>1.31066665649414</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.174342056614732</v>
+        <v>1.202254972404448</v>
       </c>
       <c r="R51" t="n">
-        <v>1.029692914963259</v>
+        <v>0.9802231539945171</v>
       </c>
       <c r="S51" t="n">
-        <v>0.5100505471162617</v>
+        <v>0.7262773722627737</v>
       </c>
       <c r="T51" t="n">
-        <v>1.342484914815623</v>
+        <v>1.329133882297304</v>
       </c>
       <c r="U51" t="n">
-        <v>0.9815061985004196</v>
+        <v>0.9913892777269986</v>
       </c>
       <c r="V51" t="n">
-        <v>0.8882502221203296</v>
+        <v>0.9659392620642079</v>
       </c>
       <c r="W51" t="n">
-        <v>1.004937885834033</v>
+        <v>1.049235857477677</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44428</v>
+        <v>44448</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9997037944067347</v>
+        <v>0.9857973294947335</v>
       </c>
       <c r="C52" t="n">
-        <v>1.047236318087694</v>
+        <v>1.039483050877098</v>
       </c>
       <c r="D52" t="n">
-        <v>1.032370862277486</v>
+        <v>1.034955634838791</v>
       </c>
       <c r="E52" t="n">
-        <v>1.045974977431118</v>
+        <v>1.024779720352146</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9440972772729153</v>
+        <v>0.9856736357085428</v>
       </c>
       <c r="G52" t="n">
-        <v>1.010981474558261</v>
+        <v>0.9894012683894261</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9140258527650504</v>
+        <v>0.9820594548501328</v>
       </c>
       <c r="I52" t="n">
-        <v>1.004823635371702</v>
+        <v>1.019160038158536</v>
       </c>
       <c r="J52" t="n">
-        <v>1.031927356504335</v>
+        <v>1.038033580312296</v>
       </c>
       <c r="K52" t="n">
-        <v>1.03054838677255</v>
+        <v>1.018765144703629</v>
       </c>
       <c r="L52" t="n">
-        <v>0.8651760953091219</v>
+        <v>0.937357224479783</v>
       </c>
       <c r="M52" t="n">
-        <v>0.8951781987415658</v>
+        <v>0.9172158084003934</v>
       </c>
       <c r="N52" t="n">
-        <v>1.002706748560855</v>
+        <v>0.9942603478064905</v>
       </c>
       <c r="O52" t="n">
-        <v>0.9228858718211649</v>
+        <v>0.8696646301019313</v>
       </c>
       <c r="P52" t="n">
-        <v>1.180981569293032</v>
+        <v>1.341333389282226</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.164943614456018</v>
+        <v>1.187528801140512</v>
       </c>
       <c r="R52" t="n">
-        <v>1.004529352865529</v>
+        <v>0.9766734736059983</v>
       </c>
       <c r="S52" t="n">
-        <v>0.533071321961854</v>
+        <v>0.7308029286182709</v>
       </c>
       <c r="T52" t="n">
-        <v>1.36342488749039</v>
+        <v>1.335826723594364</v>
       </c>
       <c r="U52" t="n">
-        <v>0.9875222513377155</v>
+        <v>0.985105902455966</v>
       </c>
       <c r="V52" t="n">
-        <v>0.8712739263776155</v>
+        <v>0.9506385506506099</v>
       </c>
       <c r="W52" t="n">
-        <v>1.022168407771545</v>
+        <v>1.040232195931702</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44430</v>
+        <v>44449</v>
       </c>
       <c r="B53" t="n">
-        <v>1.001191812577133</v>
+        <v>0.9864990444957898</v>
       </c>
       <c r="C53" t="n">
-        <v>1.047007028532232</v>
+        <v>1.036587301851341</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04036868459731</v>
+        <v>1.025944734078804</v>
       </c>
       <c r="E53" t="n">
-        <v>1.050432813148055</v>
+        <v>1.016865778250152</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9529607002650197</v>
+        <v>0.9762163457654796</v>
       </c>
       <c r="G53" t="n">
-        <v>1.01241243693167</v>
+        <v>0.9885564052082804</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9209604497095516</v>
+        <v>0.9810041070136879</v>
       </c>
       <c r="I53" t="n">
-        <v>1.004823635371702</v>
+        <v>1.034098307204294</v>
       </c>
       <c r="J53" t="n">
-        <v>1.033891078904174</v>
+        <v>1.037464869961777</v>
       </c>
       <c r="K53" t="n">
-        <v>1.033908679456031</v>
+        <v>1.016343868298266</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8880758564408526</v>
+        <v>0.9585965606086123</v>
       </c>
       <c r="M53" t="n">
-        <v>0.9062892840836998</v>
+        <v>0.9056836552403025</v>
       </c>
       <c r="N53" t="n">
-        <v>1.008812008047463</v>
+        <v>0.9892307258921968</v>
       </c>
       <c r="O53" t="n">
-        <v>0.9316804494390545</v>
+        <v>0.8522293990899542</v>
       </c>
       <c r="P53" t="n">
-        <v>1.195552125870968</v>
+        <v>1.317333348592122</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.169290406278691</v>
+        <v>1.187068597316651</v>
       </c>
       <c r="R53" t="n">
-        <v>1.004529352865529</v>
+        <v>0.9873225147715547</v>
       </c>
       <c r="S53" t="n">
-        <v>0.5466030320044916</v>
+        <v>0.7418978280394616</v>
       </c>
       <c r="T53" t="n">
-        <v>1.372033571325006</v>
+        <v>1.346062968096394</v>
       </c>
       <c r="U53" t="n">
-        <v>0.9962120771034622</v>
+        <v>0.9858040355358975</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8951343715809993</v>
+        <v>0.970196841617594</v>
       </c>
       <c r="W53" t="n">
-        <v>1.034884172662745</v>
+        <v>1.031395134745357</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44431</v>
+        <v>44451</v>
       </c>
       <c r="B54" t="n">
-        <v>1.002679830747532</v>
+        <v>0.989249746741874</v>
       </c>
       <c r="C54" t="n">
-        <v>1.046777738976769</v>
+        <v>1.037506671883895</v>
       </c>
       <c r="D54" t="n">
-        <v>1.048366506917134</v>
+        <v>1.025608414433826</v>
       </c>
       <c r="E54" t="n">
-        <v>1.054890648864991</v>
+        <v>1.018023219427061</v>
       </c>
       <c r="F54" t="n">
-        <v>0.961824123257124</v>
+        <v>0.9791153430729804</v>
       </c>
       <c r="G54" t="n">
-        <v>1.013843399305079</v>
+        <v>0.9914572093280414</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9278950466540526</v>
+        <v>0.9810041070136879</v>
       </c>
       <c r="I54" t="n">
-        <v>1.004823635371702</v>
+        <v>1.034098307204294</v>
       </c>
       <c r="J54" t="n">
-        <v>1.035854801304014</v>
+        <v>1.033695941592586</v>
       </c>
       <c r="K54" t="n">
-        <v>1.037268972139513</v>
+        <v>1.017705863336504</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9109756175725834</v>
+        <v>0.9585965606086123</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9174003694258338</v>
+        <v>0.9056836552403025</v>
       </c>
       <c r="N54" t="n">
-        <v>1.01491726753407</v>
+        <v>0.9908875685471756</v>
       </c>
       <c r="O54" t="n">
-        <v>0.9404750270569442</v>
+        <v>0.8540396357807276</v>
       </c>
       <c r="P54" t="n">
-        <v>1.210122682448904</v>
+        <v>1.317333348592122</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.173637198101364</v>
+        <v>1.185112753008968</v>
       </c>
       <c r="R54" t="n">
-        <v>1.004529352865529</v>
+        <v>0.9842799453987581</v>
       </c>
       <c r="S54" t="n">
-        <v>0.5601347420471291</v>
+        <v>0.7418978280394616</v>
       </c>
       <c r="T54" t="n">
-        <v>1.380642255159621</v>
+        <v>1.346062968096394</v>
       </c>
       <c r="U54" t="n">
-        <v>1.004901902869209</v>
+        <v>0.9816150595046598</v>
       </c>
       <c r="V54" t="n">
-        <v>0.9189948167843831</v>
+        <v>0.970196841617594</v>
       </c>
       <c r="W54" t="n">
-        <v>1.047478575599577</v>
+        <v>1.028632343092996</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44432</v>
+        <v>44452</v>
       </c>
       <c r="B55" t="n">
-        <v>1.005049337755642</v>
+        <v>0.9920004489879581</v>
       </c>
       <c r="C55" t="n">
-        <v>1.053193196150002</v>
+        <v>1.03842604191645</v>
       </c>
       <c r="D55" t="n">
-        <v>1.053779258980326</v>
+        <v>1.025272094788848</v>
       </c>
       <c r="E55" t="n">
-        <v>1.056468487102421</v>
+        <v>1.019180660603971</v>
       </c>
       <c r="F55" t="n">
-        <v>0.971671839349415</v>
+        <v>0.9820143403804812</v>
       </c>
       <c r="G55" t="n">
-        <v>1.017236751200786</v>
+        <v>0.9943580134478023</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9494445395629879</v>
+        <v>0.9810041070136879</v>
       </c>
       <c r="I55" t="n">
-        <v>1.004823635371702</v>
+        <v>1.034098307204294</v>
       </c>
       <c r="J55" t="n">
-        <v>1.041099684543909</v>
+        <v>1.029927013223396</v>
       </c>
       <c r="K55" t="n">
-        <v>1.037268972139513</v>
+        <v>1.019067858374742</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9367207912570867</v>
+        <v>0.9585965606086123</v>
       </c>
       <c r="M55" t="n">
-        <v>0.9257861455155836</v>
+        <v>0.9056836552403025</v>
       </c>
       <c r="N55" t="n">
-        <v>1.014436053512688</v>
+        <v>0.9925444112021544</v>
       </c>
       <c r="O55" t="n">
-        <v>0.9375931734999274</v>
+        <v>0.855849872471501</v>
       </c>
       <c r="P55" t="n">
-        <v>1.194785273718059</v>
+        <v>1.317333348592122</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.212875875616853</v>
+        <v>1.183156908701285</v>
       </c>
       <c r="R55" t="n">
-        <v>1.020130830479909</v>
+        <v>0.9812373760259614</v>
       </c>
       <c r="S55" t="n">
-        <v>0.5391353240915389</v>
+        <v>0.7418978280394616</v>
       </c>
       <c r="T55" t="n">
-        <v>1.386691523795687</v>
+        <v>1.346062968096394</v>
       </c>
       <c r="U55" t="n">
-        <v>1.00913546875344</v>
+        <v>0.9774260834734221</v>
       </c>
       <c r="V55" t="n">
-        <v>0.9497394114484368</v>
+        <v>0.970196841617594</v>
       </c>
       <c r="W55" t="n">
-        <v>1.053661437931522</v>
+        <v>1.025762914515917</v>
       </c>
     </row>
   </sheetData>
